--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STIPER-PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\neo-integrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A962C-1FD5-41BE-B68F-7802D4AAE678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11775"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ammar</author>
     <author>Alan Budi Kusuma</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -300,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="118">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -383,20 +384,287 @@
     <t>ANCELINA LELEDANA</t>
   </si>
   <si>
-    <t>NISN</t>
-  </si>
-  <si>
     <t>60304159</t>
+  </si>
+  <si>
+    <t>YOKISON ENUMBI</t>
+  </si>
+  <si>
+    <t>id_jalur_daftar</t>
+  </si>
+  <si>
+    <t>nisn</t>
+  </si>
+  <si>
+    <t>0039046335</t>
+  </si>
+  <si>
+    <t>DONDOBAGA</t>
+  </si>
+  <si>
+    <t>2003-07-08</t>
+  </si>
+  <si>
+    <t>9107010505750004</t>
+  </si>
+  <si>
+    <t>MUARA</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>ELE TELENGGEN</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>AIMER TABUNI</t>
+  </si>
+  <si>
+    <t>PABA</t>
+  </si>
+  <si>
+    <t>1997-05-07</t>
+  </si>
+  <si>
+    <t>9114450705970001</t>
+  </si>
+  <si>
+    <t>IMIRA WONDA</t>
+  </si>
+  <si>
+    <t>0074859030</t>
+  </si>
+  <si>
+    <t>NATHAN NATHANIEL</t>
+  </si>
+  <si>
+    <t>YALITON WANIMBO</t>
+  </si>
+  <si>
+    <t>MINI WEYA</t>
+  </si>
+  <si>
+    <t>SETINA BAHABOL</t>
+  </si>
+  <si>
+    <t>SEKIRON WONDA</t>
+  </si>
+  <si>
+    <t>YOHANA JOWAMBUT DAYAP BOTOWOP</t>
+  </si>
+  <si>
+    <t>NEMI WONDA</t>
+  </si>
+  <si>
+    <t>MIRON TABUNI</t>
+  </si>
+  <si>
+    <t>WISON WEYA</t>
+  </si>
+  <si>
+    <t>ROKI KWAMBU</t>
+  </si>
+  <si>
+    <t>EDI TABUNI</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>KAISENAR</t>
+  </si>
+  <si>
+    <t>KUARI</t>
+  </si>
+  <si>
+    <t>JIGONIKME</t>
+  </si>
+  <si>
+    <t>KABIANGGAMA</t>
+  </si>
+  <si>
+    <t>ILU</t>
+  </si>
+  <si>
+    <t>WAKERIOP</t>
+  </si>
+  <si>
+    <t>GUBUME</t>
+  </si>
+  <si>
+    <t>MULIA</t>
+  </si>
+  <si>
+    <t>JINGGI</t>
+  </si>
+  <si>
+    <t>YAHUKIMO</t>
+  </si>
+  <si>
+    <t>EKABA</t>
+  </si>
+  <si>
+    <t>1999-03-14</t>
+  </si>
+  <si>
+    <t>2002-03-09</t>
+  </si>
+  <si>
+    <t>2001-01-20</t>
+  </si>
+  <si>
+    <t>2003-09-01</t>
+  </si>
+  <si>
+    <t>2002-06-30</t>
+  </si>
+  <si>
+    <t>2004-12-16</t>
+  </si>
+  <si>
+    <t>2005-05-03</t>
+  </si>
+  <si>
+    <t>2004-02-05</t>
+  </si>
+  <si>
+    <t>2004-08-03</t>
+  </si>
+  <si>
+    <t>2003-10-20</t>
+  </si>
+  <si>
+    <t>2003-04-30</t>
+  </si>
+  <si>
+    <t>9112301403990002</t>
+  </si>
+  <si>
+    <t>9103010903020001</t>
+  </si>
+  <si>
+    <t>9107322001010001</t>
+  </si>
+  <si>
+    <t>9113374111030002</t>
+  </si>
+  <si>
+    <t>9107031203050001</t>
+  </si>
+  <si>
+    <t>9116095612040001</t>
+  </si>
+  <si>
+    <t>9107100107010001</t>
+  </si>
+  <si>
+    <t>9107010107100056</t>
+  </si>
+  <si>
+    <t>9107100107860028</t>
+  </si>
+  <si>
+    <t>9103012010030006</t>
+  </si>
+  <si>
+    <t>9123073004030002</t>
+  </si>
+  <si>
+    <t>KAMPUNG HARAPAN</t>
+  </si>
+  <si>
+    <t>DOYO BARU</t>
+  </si>
+  <si>
+    <t>PEREYA</t>
+  </si>
+  <si>
+    <t>WAENA</t>
+  </si>
+  <si>
+    <t>BAMBAR</t>
+  </si>
+  <si>
+    <t>BINOLANGGEN</t>
+  </si>
+  <si>
+    <t>9985663491</t>
+  </si>
+  <si>
+    <t>0017022199</t>
+  </si>
+  <si>
+    <t>3023824360</t>
+  </si>
+  <si>
+    <t>3055021702</t>
+  </si>
+  <si>
+    <t>0078399082</t>
+  </si>
+  <si>
+    <t>0046909148</t>
+  </si>
+  <si>
+    <t>0035827855</t>
+  </si>
+  <si>
+    <t>DORKAS KOSTIDLEF</t>
+  </si>
+  <si>
+    <t>WANAWE YIKWA</t>
+  </si>
+  <si>
+    <t>NAIRA WONDA</t>
+  </si>
+  <si>
+    <t>DITI KOBAK</t>
+  </si>
+  <si>
+    <t>LIKENA GIRE</t>
+  </si>
+  <si>
+    <t>AGUSTA URUWOP</t>
+  </si>
+  <si>
+    <t>KETENA WEYA</t>
+  </si>
+  <si>
+    <t>DIMIRA WONDA</t>
+  </si>
+  <si>
+    <t>WAILERA MORIB</t>
+  </si>
+  <si>
+    <t>HANA WESAPLA</t>
+  </si>
+  <si>
+    <t>AGUSTINA MORIP</t>
+  </si>
+  <si>
+    <t>0060303654</t>
+  </si>
+  <si>
+    <t>0377284371</t>
+  </si>
+  <si>
+    <t>0049133967</t>
+  </si>
+  <si>
+    <t>0069786560</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,39 +709,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -520,10 +773,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,41 +791,57 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -707,16 +977,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -746,26 +1016,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:Q2"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="7"/>
-    <tableColumn id="2" name="NIM"/>
-    <tableColumn id="3" name="prodi (uuid)"/>
-    <tableColumn id="4" name="tanggal daftar" dataDxfId="6"/>
-    <tableColumn id="5" name="periode"/>
-    <tableColumn id="6" name="Jenis_masuk"/>
-    <tableColumn id="7" name="jk"/>
-    <tableColumn id="8" name="Tempat Lahir" dataDxfId="5"/>
-    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="4"/>
-    <tableColumn id="10" name="Agama"/>
-    <tableColumn id="11" name="NIK" dataDxfId="3"/>
-    <tableColumn id="12" name="negara"/>
-    <tableColumn id="13" name="Kelurahan"/>
-    <tableColumn id="14" name="ID_wilayah" dataDxfId="2"/>
-    <tableColumn id="15" name="ibu" dataDxfId="1"/>
-    <tableColumn id="16" name="Biaya Masuk"/>
-    <tableColumn id="17" name="NISN" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:R15" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:R15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nama_mahasiswa" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NIM"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="prodi (uuid)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tanggal daftar" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="periode"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Jenis_masuk"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jk"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tempat Lahir" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tanggal Lahir" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Agama"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NIK" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="negara"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Kelurahan"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ID_wilayah" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="ibu" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Biaya Masuk"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="nisn" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{5BAF5F96-01B5-416F-8B8D-194226E02EAB}" name="id_jalur_daftar" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,11 +1304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,22 +1316,23 @@
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1342,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1085,22 +1357,22 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1109,15 +1381,18 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>27</v>
+      <c r="Q1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>2254201001</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1126,31 +1401,31 @@
       <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>20221</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="9">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="11" t="s">
@@ -1159,18 +1434,750 @@
       <c r="O2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="9">
         <v>2425000</v>
       </c>
       <c r="Q2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2254201002</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2254201003</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2254201004</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2254201005</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2254201006</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2254201007</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2254201008</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2254201009</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="9">
+        <v>3</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2254201010</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2254201011</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2254201012</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2254201013</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2254201014</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="9">
+        <v>2</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\neo-integrator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\neo-integrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A962C-1FD5-41BE-B68F-7802D4AAE678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ammar</author>
     <author>Alan Budi Kusuma</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="K1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -655,12 +654,204 @@
   </si>
   <si>
     <t>0069786560</t>
+  </si>
+  <si>
+    <t>RUTH MILLA MONIM</t>
+  </si>
+  <si>
+    <t>SERLINA SUHUN</t>
+  </si>
+  <si>
+    <t>MINUS YAWALKA</t>
+  </si>
+  <si>
+    <t>YOMISON DEWELEK</t>
+  </si>
+  <si>
+    <t>MARCHELA DIANA ANGGUN LUMUKO</t>
+  </si>
+  <si>
+    <t>HANS WILLEM KAROBA</t>
+  </si>
+  <si>
+    <t>DOMINGGUS DECAR VALO</t>
+  </si>
+  <si>
+    <t>SAULUS DAIMOR</t>
+  </si>
+  <si>
+    <t>YOS PENGGU</t>
+  </si>
+  <si>
+    <t>FLAURENSIA RUNGGAWERI</t>
+  </si>
+  <si>
+    <t>SENTANI</t>
+  </si>
+  <si>
+    <t>LOLAT</t>
+  </si>
+  <si>
+    <t>BANUMDOL</t>
+  </si>
+  <si>
+    <t>ILAGA</t>
+  </si>
+  <si>
+    <t>JAYAPURA</t>
+  </si>
+  <si>
+    <t>MANOKWARI</t>
+  </si>
+  <si>
+    <t>KUPANG</t>
+  </si>
+  <si>
+    <t>SUNTAMON</t>
+  </si>
+  <si>
+    <t>PUAI</t>
+  </si>
+  <si>
+    <t>NABIRE</t>
+  </si>
+  <si>
+    <t>2003-03-08</t>
+  </si>
+  <si>
+    <t>1992-06-05</t>
+  </si>
+  <si>
+    <t>2002-11-11</t>
+  </si>
+  <si>
+    <t>2002-11-18</t>
+  </si>
+  <si>
+    <t>2002-03-24</t>
+  </si>
+  <si>
+    <t>2001-01-02</t>
+  </si>
+  <si>
+    <t>2002-03-16</t>
+  </si>
+  <si>
+    <t>2003-06-12</t>
+  </si>
+  <si>
+    <t>1998-09-01</t>
+  </si>
+  <si>
+    <t>2003-02-16</t>
+  </si>
+  <si>
+    <t>9103014803030002</t>
+  </si>
+  <si>
+    <t>9102014506920006</t>
+  </si>
+  <si>
+    <t>9112011011010001</t>
+  </si>
+  <si>
+    <t>9125181811020001</t>
+  </si>
+  <si>
+    <t>9107105693020001</t>
+  </si>
+  <si>
+    <t>9103010201010001</t>
+  </si>
+  <si>
+    <t>9103111603020001</t>
+  </si>
+  <si>
+    <t>9113431206030001</t>
+  </si>
+  <si>
+    <t>9103014109980003</t>
+  </si>
+  <si>
+    <t>9104165602030001</t>
+  </si>
+  <si>
+    <t>SEREH</t>
+  </si>
+  <si>
+    <t>SENTANI KOTA</t>
+  </si>
+  <si>
+    <t>NOLOKLA</t>
+  </si>
+  <si>
+    <t>DOBONSOLO</t>
+  </si>
+  <si>
+    <t>ALBERTINA MONIM</t>
+  </si>
+  <si>
+    <t>YEREMINA KOBAK</t>
+  </si>
+  <si>
+    <t>AGUSTINA TAPYOR</t>
+  </si>
+  <si>
+    <t>ITINA TINA</t>
+  </si>
+  <si>
+    <t>TREIS MAKALEW</t>
+  </si>
+  <si>
+    <t>LOWISA BUKORSYOM</t>
+  </si>
+  <si>
+    <t>BERNADETE ABUK</t>
+  </si>
+  <si>
+    <t>YOKSANA WAMIT</t>
+  </si>
+  <si>
+    <t>MILKA AWOITAW</t>
+  </si>
+  <si>
+    <t>AXALEA WARINUSI</t>
+  </si>
+  <si>
+    <t>0035682357</t>
+  </si>
+  <si>
+    <t>002458106</t>
+  </si>
+  <si>
+    <t>0026663421</t>
+  </si>
+  <si>
+    <t>002238651</t>
+  </si>
+  <si>
+    <t>0014940833</t>
+  </si>
+  <si>
+    <t>0024701457</t>
+  </si>
+  <si>
+    <t>0036568892</t>
+  </si>
+  <si>
+    <t>9984996859</t>
+  </si>
+  <si>
+    <t>0038015731</t>
+  </si>
+  <si>
+    <t>0000000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -729,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -772,12 +963,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +1036,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1016,27 +1245,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:R15" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:R15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R25" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:R25"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nama_mahasiswa" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NIM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="prodi (uuid)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tanggal daftar" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="periode"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Jenis_masuk"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jk"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tempat Lahir" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tanggal Lahir" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Agama"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NIK" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="negara"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Kelurahan"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ID_wilayah" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="ibu" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Biaya Masuk"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="nisn" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{5BAF5F96-01B5-416F-8B8D-194226E02EAB}" name="id_jalur_daftar" dataDxfId="1"/>
+    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="8"/>
+    <tableColumn id="2" name="NIM"/>
+    <tableColumn id="3" name="prodi (uuid)"/>
+    <tableColumn id="4" name="tanggal daftar" dataDxfId="7"/>
+    <tableColumn id="5" name="periode"/>
+    <tableColumn id="6" name="Jenis_masuk"/>
+    <tableColumn id="7" name="jk"/>
+    <tableColumn id="8" name="Tempat Lahir" dataDxfId="6"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="5"/>
+    <tableColumn id="10" name="Agama"/>
+    <tableColumn id="11" name="NIK" dataDxfId="4"/>
+    <tableColumn id="12" name="negara"/>
+    <tableColumn id="13" name="Kelurahan"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="3"/>
+    <tableColumn id="15" name="ibu" dataDxfId="2"/>
+    <tableColumn id="16" name="Biaya Masuk"/>
+    <tableColumn id="17" name="nisn" dataDxfId="1"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1304,11 +1533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1558,7 @@
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="7"/>
+    <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2169,6 +2398,566 @@
         <v>102</v>
       </c>
       <c r="R15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2254201017</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2254201018</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18">
+        <v>2254201019</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>20221</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18">
+        <v>2425000</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>173</v>
+      </c>
+      <c r="R18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2254201020</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="9">
+        <v>2</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20">
+        <v>2254201021</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>20221</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s">
+        <v>166</v>
+      </c>
+      <c r="P20">
+        <v>2425000</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>175</v>
+      </c>
+      <c r="R20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2254201022</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="9">
+        <v>2</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2254201023</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2254201024</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2254201025</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="9">
+        <v>2</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2254201026</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="9">
+        <v>2</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>38</v>
       </c>
     </row>

--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="agribisnis" sheetId="1" r:id="rId1"/>
+    <sheet name="agroteknologi" sheetId="3" r:id="rId2"/>
+    <sheet name="akuakultur" sheetId="4" r:id="rId3"/>
+    <sheet name="peternakan" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -299,8 +302,836 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ammar</author>
+    <author>Alan Budi Kusuma</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Awal kolom data mahasiwa.
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+uuid_Prodi, bisa diihat di data Prodi
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tanggal Pertama Masuk,
+Format yyyy-mm-dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Periode / ID Semester
+ex : 20181 atau 20171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Peserta didik baru
+2 : Pindahan 
+3 : Naik kelas 
+4 : Akselerasi
+5 : Mengulang
+6 : Lanjutan semester
+8 : Pindahan Alih Bentuk
+11 : Alih Jenjang
+12 : Lintas Jalur
+13 : Rekognisi Pembelajaran Lampau (RPL)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Jenis Kelami
+L : Laki-Laki
+P : Perempuan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Islam
+2 : Kristen
+3 : Katholik
+4 : Hindu
+5 : Budha
+6 : Konghucu
+99 : Lainnya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neo_integrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wajib 16 Karakter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID : untuk Indonesia
+Method : GetNegara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID Wilayah. Web Service:
+GetWilayah
+000000 : INDONESIA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ammar</author>
+    <author>Alan Budi Kusuma</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Awal kolom data mahasiwa.
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+uuid_Prodi, bisa diihat di data Prodi
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tanggal Pertama Masuk,
+Format yyyy-mm-dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Periode / ID Semester
+ex : 20181 atau 20171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Peserta didik baru
+2 : Pindahan 
+3 : Naik kelas 
+4 : Akselerasi
+5 : Mengulang
+6 : Lanjutan semester
+8 : Pindahan Alih Bentuk
+11 : Alih Jenjang
+12 : Lintas Jalur
+13 : Rekognisi Pembelajaran Lampau (RPL)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Jenis Kelami
+L : Laki-Laki
+P : Perempuan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Islam
+2 : Kristen
+3 : Katholik
+4 : Hindu
+5 : Budha
+6 : Konghucu
+99 : Lainnya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neo_integrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wajib 16 Karakter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID : untuk Indonesia
+Method : GetNegara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID Wilayah. Web Service:
+GetWilayah
+000000 : INDONESIA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ammar</author>
+    <author>Alan Budi Kusuma</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Awal kolom data mahasiwa.
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+uuid_Prodi, bisa diihat di data Prodi
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tanggal Pertama Masuk,
+Format yyyy-mm-dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Periode / ID Semester
+ex : 20181 atau 20171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Peserta didik baru
+2 : Pindahan 
+3 : Naik kelas 
+4 : Akselerasi
+5 : Mengulang
+6 : Lanjutan semester
+8 : Pindahan Alih Bentuk
+11 : Alih Jenjang
+12 : Lintas Jalur
+13 : Rekognisi Pembelajaran Lampau (RPL)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Jenis Kelami
+L : Laki-Laki
+P : Perempuan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Islam
+2 : Kristen
+3 : Katholik
+4 : Hindu
+5 : Budha
+6 : Konghucu
+99 : Lainnya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neo_integrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wajib 16 Karakter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID : untuk Indonesia
+Method : GetNegara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID Wilayah. Web Service:
+GetWilayah
+000000 : INDONESIA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="515">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -846,6 +1677,1005 @@
   </si>
   <si>
     <t>0000000000</t>
+  </si>
+  <si>
+    <t>METERON KOGOYA</t>
+  </si>
+  <si>
+    <t>YESAYA TIPAGAU</t>
+  </si>
+  <si>
+    <t>PATRISIA YAMHIN</t>
+  </si>
+  <si>
+    <t>MENIUS WONDA</t>
+  </si>
+  <si>
+    <t>MARKUS GIBAN</t>
+  </si>
+  <si>
+    <t>YOBET IBAGE</t>
+  </si>
+  <si>
+    <t>SALOMO UPETAYA</t>
+  </si>
+  <si>
+    <t>NOVITA KALAKMABIN</t>
+  </si>
+  <si>
+    <t>DORCI MURIB</t>
+  </si>
+  <si>
+    <t>AWIRU MARIAN</t>
+  </si>
+  <si>
+    <t>WORAGA</t>
+  </si>
+  <si>
+    <t>UGIMBA</t>
+  </si>
+  <si>
+    <t>PELEPKON</t>
+  </si>
+  <si>
+    <t>YERIKO</t>
+  </si>
+  <si>
+    <t>KEN-KENI</t>
+  </si>
+  <si>
+    <t>IRI</t>
+  </si>
+  <si>
+    <t>BAKONAKA</t>
+  </si>
+  <si>
+    <t>SINAK</t>
+  </si>
+  <si>
+    <t>TULEM</t>
+  </si>
+  <si>
+    <t>2002-10-22</t>
+  </si>
+  <si>
+    <t>2001-07-15</t>
+  </si>
+  <si>
+    <t>2002-01-05</t>
+  </si>
+  <si>
+    <t>2002-05-22</t>
+  </si>
+  <si>
+    <t>2002-02-01</t>
+  </si>
+  <si>
+    <t>2004-04-20</t>
+  </si>
+  <si>
+    <t>2003-09-12</t>
+  </si>
+  <si>
+    <t>1992-08-06</t>
+  </si>
+  <si>
+    <t>2002-09-02</t>
+  </si>
+  <si>
+    <t>2005-10-06</t>
+  </si>
+  <si>
+    <t>9103132210020001</t>
+  </si>
+  <si>
+    <t>9109011507010005</t>
+  </si>
+  <si>
+    <t>9112014510000002</t>
+  </si>
+  <si>
+    <t>9107322205020002</t>
+  </si>
+  <si>
+    <t>9124320102020001</t>
+  </si>
+  <si>
+    <t>9113482004040001</t>
+  </si>
+  <si>
+    <t>9120032011030001</t>
+  </si>
+  <si>
+    <t>9112234608920001</t>
+  </si>
+  <si>
+    <t>9125064107000031</t>
+  </si>
+  <si>
+    <t>9102505802040001</t>
+  </si>
+  <si>
+    <t>AKMAKOT</t>
+  </si>
+  <si>
+    <t>NAFRI</t>
+  </si>
+  <si>
+    <t>KARELMA</t>
+  </si>
+  <si>
+    <t>SIKARI</t>
+  </si>
+  <si>
+    <t>OTINA JIKWA</t>
+  </si>
+  <si>
+    <t>LEWINA TIPAGAU</t>
+  </si>
+  <si>
+    <t>MODESTA ALWOLKA</t>
+  </si>
+  <si>
+    <t>PEMIRA KOGOYA</t>
+  </si>
+  <si>
+    <t>MARKINA SENIK</t>
+  </si>
+  <si>
+    <t>MALEKINA ITLAY</t>
+  </si>
+  <si>
+    <t>YOSINA TIJAKET</t>
+  </si>
+  <si>
+    <t>PERLINA TEPMUL</t>
+  </si>
+  <si>
+    <t>MANA TABUNI</t>
+  </si>
+  <si>
+    <t>MARIANHE ALUA</t>
+  </si>
+  <si>
+    <t>0018652096</t>
+  </si>
+  <si>
+    <t>0021587928</t>
+  </si>
+  <si>
+    <t>0023480334</t>
+  </si>
+  <si>
+    <t>0047125420</t>
+  </si>
+  <si>
+    <t>0028586916</t>
+  </si>
+  <si>
+    <t>0052401087</t>
+  </si>
+  <si>
+    <t>0060300112</t>
+  </si>
+  <si>
+    <t>0000182758</t>
+  </si>
+  <si>
+    <t>0039754294</t>
+  </si>
+  <si>
+    <t>MAY KALEYALA</t>
+  </si>
+  <si>
+    <t>PEN WENDA</t>
+  </si>
+  <si>
+    <t>YESUA YIKWA</t>
+  </si>
+  <si>
+    <t>TARINCE UMANGGE</t>
+  </si>
+  <si>
+    <t>YANICE SUHUN</t>
+  </si>
+  <si>
+    <t>UNIPKU M. UROPMABIN</t>
+  </si>
+  <si>
+    <t>9112101106040001</t>
+  </si>
+  <si>
+    <t>9123340508030001</t>
+  </si>
+  <si>
+    <t>9103013006030007</t>
+  </si>
+  <si>
+    <t>9124124606990001</t>
+  </si>
+  <si>
+    <t>9113035403050001</t>
+  </si>
+  <si>
+    <t>9112225209030001</t>
+  </si>
+  <si>
+    <t>0041029864</t>
+  </si>
+  <si>
+    <t>3037225033</t>
+  </si>
+  <si>
+    <t>0023298515</t>
+  </si>
+  <si>
+    <t>0036485523</t>
+  </si>
+  <si>
+    <t>0019685970</t>
+  </si>
+  <si>
+    <t>0060304692</t>
+  </si>
+  <si>
+    <t>CALAP</t>
+  </si>
+  <si>
+    <t>GUKOPI</t>
+  </si>
+  <si>
+    <t>TENONGGAME</t>
+  </si>
+  <si>
+    <t>MBUA</t>
+  </si>
+  <si>
+    <t>NINIAHAN</t>
+  </si>
+  <si>
+    <t>OKLIP</t>
+  </si>
+  <si>
+    <t>2004-06-11</t>
+  </si>
+  <si>
+    <t>2003-08-05</t>
+  </si>
+  <si>
+    <t>2003-06-30</t>
+  </si>
+  <si>
+    <t>1999-06-06</t>
+  </si>
+  <si>
+    <t>2003-06-15</t>
+  </si>
+  <si>
+    <t>PELEPNER KIPKA</t>
+  </si>
+  <si>
+    <t>PANINA KOGOYA</t>
+  </si>
+  <si>
+    <t>ALAINA TABUNI</t>
+  </si>
+  <si>
+    <t>SELPINA LOKBERE</t>
+  </si>
+  <si>
+    <t>MEYEN BALINGGA</t>
+  </si>
+  <si>
+    <t>MAITE HAONGAP</t>
+  </si>
+  <si>
+    <t>PERDANUS KULKA</t>
+  </si>
+  <si>
+    <t>YULINCE ASNAD IMTORA</t>
+  </si>
+  <si>
+    <t>APOLONIA WAMBUMOK</t>
+  </si>
+  <si>
+    <t>LINDA ROSALINA WETIPO</t>
+  </si>
+  <si>
+    <t>EITON WANIMBO</t>
+  </si>
+  <si>
+    <t>9112252204030001</t>
+  </si>
+  <si>
+    <t>9116095504020001</t>
+  </si>
+  <si>
+    <t>9103016710020001</t>
+  </si>
+  <si>
+    <t>9103021711040003</t>
+  </si>
+  <si>
+    <t>0031300392</t>
+  </si>
+  <si>
+    <t>0029486030</t>
+  </si>
+  <si>
+    <t>0048119789</t>
+  </si>
+  <si>
+    <t>0060301008</t>
+  </si>
+  <si>
+    <t>KAMUT</t>
+  </si>
+  <si>
+    <t>MEGAPURA</t>
+  </si>
+  <si>
+    <t>BANGGERI</t>
+  </si>
+  <si>
+    <t>2003-12-06</t>
+  </si>
+  <si>
+    <t>2004-05-05</t>
+  </si>
+  <si>
+    <t>2002-10-27</t>
+  </si>
+  <si>
+    <t>2004-11-17</t>
+  </si>
+  <si>
+    <t>MINSO URWAN</t>
+  </si>
+  <si>
+    <t>ODETA TOMONGGAN</t>
+  </si>
+  <si>
+    <t>PALISA ASSO</t>
+  </si>
+  <si>
+    <t>EIRA YAGAFE</t>
+  </si>
+  <si>
+    <t>ALI KOBAK</t>
+  </si>
+  <si>
+    <t>YUNICE SUHUN</t>
+  </si>
+  <si>
+    <t>IRIANTO YAMHIN</t>
+  </si>
+  <si>
+    <t>KOKO KOGOYA</t>
+  </si>
+  <si>
+    <t>BOI ALIMDAMA</t>
+  </si>
+  <si>
+    <t>NIKOLAUS KASIPDANA</t>
+  </si>
+  <si>
+    <t>GENIS KEAN</t>
+  </si>
+  <si>
+    <t>ROHID BAMINGGEN</t>
+  </si>
+  <si>
+    <t>DURAM</t>
+  </si>
+  <si>
+    <t>NILEME</t>
+  </si>
+  <si>
+    <t>PUKIRI</t>
+  </si>
+  <si>
+    <t>2002-02-06</t>
+  </si>
+  <si>
+    <t>2004-12-25</t>
+  </si>
+  <si>
+    <t>2004-07-08</t>
+  </si>
+  <si>
+    <t>2003-01-06</t>
+  </si>
+  <si>
+    <t>2001-04-04</t>
+  </si>
+  <si>
+    <t>ARITA NIPSAN</t>
+  </si>
+  <si>
+    <t>SEVERYANA DELKA</t>
+  </si>
+  <si>
+    <t>YORANA WENDA</t>
+  </si>
+  <si>
+    <t>DILONER KIPKA</t>
+  </si>
+  <si>
+    <t>GELINA WISAL</t>
+  </si>
+  <si>
+    <t>9113500307010002</t>
+  </si>
+  <si>
+    <t>9113035403020001</t>
+  </si>
+  <si>
+    <t>9112222106990001</t>
+  </si>
+  <si>
+    <t>9123190807040001</t>
+  </si>
+  <si>
+    <t>9112110601030001</t>
+  </si>
+  <si>
+    <t>9103010404010007</t>
+  </si>
+  <si>
+    <t>0029090690</t>
+  </si>
+  <si>
+    <t>0039815812</t>
+  </si>
+  <si>
+    <t>0042562559</t>
+  </si>
+  <si>
+    <t>0036324229</t>
+  </si>
+  <si>
+    <t>0019062886</t>
+  </si>
+  <si>
+    <t>a699101c-3c6d-48ae-b411-bbb3b1f2527f</t>
+  </si>
+  <si>
+    <t>e40b0e9d-7c50-4720-81c3-73f5b3a027b2</t>
+  </si>
+  <si>
+    <t>ASEPINA MABEL</t>
+  </si>
+  <si>
+    <t>MIKAU WANDIK</t>
+  </si>
+  <si>
+    <t>BARBALINA PUHIRI</t>
+  </si>
+  <si>
+    <t>SEM TOGODLI</t>
+  </si>
+  <si>
+    <t>EDI WONDA</t>
+  </si>
+  <si>
+    <t>YOSEFINA FERANITA DANI</t>
+  </si>
+  <si>
+    <t>EDOWA WETIPO</t>
+  </si>
+  <si>
+    <t>ZAKARIAS YABOISEMBUT</t>
+  </si>
+  <si>
+    <t>YUDISON YAMBOGATU</t>
+  </si>
+  <si>
+    <t>TANI HILAPOK</t>
+  </si>
+  <si>
+    <t>DETA ELOPERE</t>
+  </si>
+  <si>
+    <t>VINSEND KALVIN DOGOPIA</t>
+  </si>
+  <si>
+    <t>HELENA YAULONOP</t>
+  </si>
+  <si>
+    <t>NALSON SOL</t>
+  </si>
+  <si>
+    <t>DAVID WANIMBO</t>
+  </si>
+  <si>
+    <t>GONDE BINILUK</t>
+  </si>
+  <si>
+    <t>YULITINA KULKA</t>
+  </si>
+  <si>
+    <t>OTINUS TABUNI</t>
+  </si>
+  <si>
+    <t>JOS KALOLIK</t>
+  </si>
+  <si>
+    <t>LEMEANUS NAIBAL</t>
+  </si>
+  <si>
+    <t>EMANUS HILAPOK</t>
+  </si>
+  <si>
+    <t>SETINUS WANDIK</t>
+  </si>
+  <si>
+    <t>DOMINGGUS APASERAY</t>
+  </si>
+  <si>
+    <t>LERRI REINHOLD TOKORO</t>
+  </si>
+  <si>
+    <t>NOVISKA NATALIA SOKOY</t>
+  </si>
+  <si>
+    <t>DAVID DEPON SUWAE</t>
+  </si>
+  <si>
+    <t>DEMIRON WONDA</t>
+  </si>
+  <si>
+    <t>YAKOMINA YABANSABRA</t>
+  </si>
+  <si>
+    <t>FEBRIANI MAHUZE</t>
+  </si>
+  <si>
+    <t>MERONDI NAREK</t>
+  </si>
+  <si>
+    <t>Y. HERLINA WALLI</t>
+  </si>
+  <si>
+    <t>ELISABET ENOK</t>
+  </si>
+  <si>
+    <t>RANI KOGOYA</t>
+  </si>
+  <si>
+    <t>DANIEL QUBBER BRAWERI</t>
+  </si>
+  <si>
+    <t>ELELIM</t>
+  </si>
+  <si>
+    <t>BAWI</t>
+  </si>
+  <si>
+    <t>KINO</t>
+  </si>
+  <si>
+    <t>SANOBA</t>
+  </si>
+  <si>
+    <t>HOLOLIK</t>
+  </si>
+  <si>
+    <t>DANOKIT</t>
+  </si>
+  <si>
+    <t>WANIMA</t>
+  </si>
+  <si>
+    <t>WAROPKO</t>
+  </si>
+  <si>
+    <t>NALCA</t>
+  </si>
+  <si>
+    <t>WAMENA</t>
+  </si>
+  <si>
+    <t>LENGPAN</t>
+  </si>
+  <si>
+    <t>DUAWALEK</t>
+  </si>
+  <si>
+    <t>KORUPUN</t>
+  </si>
+  <si>
+    <t>DAELA</t>
+  </si>
+  <si>
+    <t>PIPISIN</t>
+  </si>
+  <si>
+    <t>TABLASUPA</t>
+  </si>
+  <si>
+    <t>SIMPORO</t>
+  </si>
+  <si>
+    <t>MARIBU</t>
+  </si>
+  <si>
+    <t>GENAME</t>
+  </si>
+  <si>
+    <t>BABRONGKO</t>
+  </si>
+  <si>
+    <t>SOSIRI</t>
+  </si>
+  <si>
+    <t>20003-10-12</t>
+  </si>
+  <si>
+    <t>2004-06-26</t>
+  </si>
+  <si>
+    <t>2003-06-24</t>
+  </si>
+  <si>
+    <t>2002-07-25</t>
+  </si>
+  <si>
+    <t>2000-04-24</t>
+  </si>
+  <si>
+    <t>2004-11-10</t>
+  </si>
+  <si>
+    <t>2003-02-05</t>
+  </si>
+  <si>
+    <t>2001-10-31</t>
+  </si>
+  <si>
+    <t>2003-03-15</t>
+  </si>
+  <si>
+    <t>2000-09-13</t>
+  </si>
+  <si>
+    <t>2001-02-18</t>
+  </si>
+  <si>
+    <t>1999-08-15</t>
+  </si>
+  <si>
+    <t>2004-08-14</t>
+  </si>
+  <si>
+    <t>1999-06-10</t>
+  </si>
+  <si>
+    <t>2002-07-05</t>
+  </si>
+  <si>
+    <t>2004-06-14</t>
+  </si>
+  <si>
+    <t>2001-02-10</t>
+  </si>
+  <si>
+    <t>1999-10-19</t>
+  </si>
+  <si>
+    <t>2004-09-10</t>
+  </si>
+  <si>
+    <t>2002-07-18</t>
+  </si>
+  <si>
+    <t>2004-07-02</t>
+  </si>
+  <si>
+    <t>1978-08-14</t>
+  </si>
+  <si>
+    <t>1982-12-06</t>
+  </si>
+  <si>
+    <t>1996-04-04</t>
+  </si>
+  <si>
+    <t>1998-05-20</t>
+  </si>
+  <si>
+    <t>2000-12-13</t>
+  </si>
+  <si>
+    <t>9122014205000003</t>
+  </si>
+  <si>
+    <t>9114222406030001</t>
+  </si>
+  <si>
+    <t>9103026507020001</t>
+  </si>
+  <si>
+    <t>9103012401000005</t>
+  </si>
+  <si>
+    <t>9107191011040001</t>
+  </si>
+  <si>
+    <t>9102640502030001</t>
+  </si>
+  <si>
+    <t>9116133110010001</t>
+  </si>
+  <si>
+    <t>9102124803020001</t>
+  </si>
+  <si>
+    <t>9103011309000005</t>
+  </si>
+  <si>
+    <t>9116015802990001</t>
+  </si>
+  <si>
+    <t>9103011508940002</t>
+  </si>
+  <si>
+    <t>9123011404070002</t>
+  </si>
+  <si>
+    <t>9107101006990001</t>
+  </si>
+  <si>
+    <t>9112256003990001</t>
+  </si>
+  <si>
+    <t>9125052007040001</t>
+  </si>
+  <si>
+    <t>9102341407040002</t>
+  </si>
+  <si>
+    <t>9113401002010001</t>
+  </si>
+  <si>
+    <t>9102461910990001</t>
+  </si>
+  <si>
+    <t>9122022210780001</t>
+  </si>
+  <si>
+    <t>9103030208020001</t>
+  </si>
+  <si>
+    <t>9103121210030001</t>
+  </si>
+  <si>
+    <t>9107030107930380</t>
+  </si>
+  <si>
+    <t>9103045408780001</t>
+  </si>
+  <si>
+    <t>9114042509090001</t>
+  </si>
+  <si>
+    <t>9110084902820001</t>
+  </si>
+  <si>
+    <t>9103134401960001</t>
+  </si>
+  <si>
+    <t>9125086005980003</t>
+  </si>
+  <si>
+    <t>9171021312000007</t>
+  </si>
+  <si>
+    <t>BULMU</t>
+  </si>
+  <si>
+    <t>NUMBA</t>
+  </si>
+  <si>
+    <t>ANGGAGALO</t>
+  </si>
+  <si>
+    <t>ABEPURA</t>
+  </si>
+  <si>
+    <t>PERSATUAN</t>
+  </si>
+  <si>
+    <t>BOLDA</t>
+  </si>
+  <si>
+    <t>KOTORAMBUR</t>
+  </si>
+  <si>
+    <t>DUABALEK</t>
+  </si>
+  <si>
+    <t>DOYO LAMA</t>
+  </si>
+  <si>
+    <t>BUDLIEM</t>
+  </si>
+  <si>
+    <t>DUWONG</t>
+  </si>
+  <si>
+    <t>EBUNGFA</t>
+  </si>
+  <si>
+    <t>BAGAISERWAR II</t>
+  </si>
+  <si>
+    <t>ARDIPURA</t>
+  </si>
+  <si>
+    <t>ASNAR MABEL</t>
+  </si>
+  <si>
+    <t>ARITE KOGOYA</t>
+  </si>
+  <si>
+    <t>IDHAWATI YOM</t>
+  </si>
+  <si>
+    <t>METINA GOMBO</t>
+  </si>
+  <si>
+    <t>NARMINA TABUNI</t>
+  </si>
+  <si>
+    <t>WANISALEK MULAIT</t>
+  </si>
+  <si>
+    <t>MBELI SUMABU</t>
+  </si>
+  <si>
+    <t>NITA MEAGA</t>
+  </si>
+  <si>
+    <t>ANNA EDOWAI</t>
+  </si>
+  <si>
+    <t>ANTONIA MININUP</t>
+  </si>
+  <si>
+    <t>EVA KUKNA</t>
+  </si>
+  <si>
+    <t>TINA YIGIBALOM</t>
+  </si>
+  <si>
+    <t>PATINA WONDA</t>
+  </si>
+  <si>
+    <t>LIRA KOGOYA</t>
+  </si>
+  <si>
+    <t>OLINA HILAPOK</t>
+  </si>
+  <si>
+    <t>SARIOG WED</t>
+  </si>
+  <si>
+    <t>LERINA MOSIP</t>
+  </si>
+  <si>
+    <t>YOLITA WALIANGGEN</t>
+  </si>
+  <si>
+    <t>ANCELINA LAMBERTA SERONTOU</t>
+  </si>
+  <si>
+    <t>DEBORA DEBI WALLI</t>
+  </si>
+  <si>
+    <t>ENDITERA KOGOYA</t>
+  </si>
+  <si>
+    <t>YOHANA SATO</t>
+  </si>
+  <si>
+    <t>SENDI WENDA</t>
+  </si>
+  <si>
+    <t>ROSMINA WALLI</t>
+  </si>
+  <si>
+    <t>BELANDINA SULCE ENTONG</t>
+  </si>
+  <si>
+    <t>TUTUNA WAKER</t>
+  </si>
+  <si>
+    <t>HENNY YAKOMINA RANDONGKIR</t>
+  </si>
+  <si>
+    <t>3044153162</t>
+  </si>
+  <si>
+    <t>0035739083</t>
+  </si>
+  <si>
+    <t>0022852794</t>
+  </si>
+  <si>
+    <t>0009181309</t>
+  </si>
+  <si>
+    <t>0048693888</t>
+  </si>
+  <si>
+    <t>0037940017</t>
+  </si>
+  <si>
+    <t>0019595791</t>
+  </si>
+  <si>
+    <t>0038766415</t>
+  </si>
+  <si>
+    <t>0009054146</t>
+  </si>
+  <si>
+    <t>9998481039</t>
+  </si>
+  <si>
+    <t>9996220749</t>
+  </si>
+  <si>
+    <t>0047721878</t>
+  </si>
+  <si>
+    <t>9994896593</t>
+  </si>
+  <si>
+    <t>3028971789</t>
+  </si>
+  <si>
+    <t>0044501781</t>
+  </si>
+  <si>
+    <t>0045224681</t>
+  </si>
+  <si>
+    <t>0017881318</t>
+  </si>
+  <si>
+    <t>9997923552</t>
+  </si>
+  <si>
+    <t>0027869760</t>
+  </si>
+  <si>
+    <t>0025069219</t>
+  </si>
+  <si>
+    <t>0036661497</t>
+  </si>
+  <si>
+    <t>3045519964</t>
+  </si>
+  <si>
+    <t>224250028</t>
+  </si>
+  <si>
+    <t>0046502554</t>
+  </si>
+  <si>
+    <t>9965488869</t>
+  </si>
+  <si>
+    <t>3987115447</t>
+  </si>
+  <si>
+    <t>0006349197</t>
+  </si>
+  <si>
+    <t>311ea2b8-588f-410b-ad65-a3c9e7997310</t>
   </si>
 </sst>
 </file>
@@ -855,7 +2685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,8 +2736,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,8 +2790,19 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -992,12 +2874,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,12 +2961,168 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="27">
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1245,27 +3317,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R25" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:R25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R54" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:R54"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="8"/>
+    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="23"/>
     <tableColumn id="2" name="NIM"/>
     <tableColumn id="3" name="prodi (uuid)"/>
-    <tableColumn id="4" name="tanggal daftar" dataDxfId="7"/>
+    <tableColumn id="4" name="tanggal daftar" dataDxfId="22"/>
     <tableColumn id="5" name="periode"/>
     <tableColumn id="6" name="Jenis_masuk"/>
     <tableColumn id="7" name="jk"/>
-    <tableColumn id="8" name="Tempat Lahir" dataDxfId="6"/>
-    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="5"/>
+    <tableColumn id="8" name="Tempat Lahir" dataDxfId="21"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="20"/>
     <tableColumn id="10" name="Agama"/>
-    <tableColumn id="11" name="NIK" dataDxfId="4"/>
+    <tableColumn id="11" name="NIK" dataDxfId="19"/>
     <tableColumn id="12" name="negara"/>
     <tableColumn id="13" name="Kelurahan"/>
-    <tableColumn id="14" name="ID_wilayah" dataDxfId="3"/>
-    <tableColumn id="15" name="ibu" dataDxfId="2"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="18"/>
+    <tableColumn id="15" name="ibu" dataDxfId="17"/>
     <tableColumn id="16" name="Biaya Masuk"/>
-    <tableColumn id="17" name="nisn" dataDxfId="1"/>
-    <tableColumn id="18" name="id_jalur_daftar" dataDxfId="0"/>
+    <tableColumn id="17" name="nisn" dataDxfId="16"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:R3" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" dataCellStyle="Normal">
+  <autoFilter ref="A1:R3"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="nama_mahasiswa" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="NIM" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="prodi (uuid)" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="tanggal daftar" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="periode" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Jenis_masuk" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="jk" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Tempat Lahir" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Agama" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="NIK" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="negara" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Kelurahan" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="ID_wilayah" dataCellStyle="Normal"/>
+    <tableColumn id="15" name="ibu" dataCellStyle="Normal"/>
+    <tableColumn id="16" name="Biaya Masuk" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="nisn" dataCellStyle="Normal"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A1:R35" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" dataCellStyle="Normal">
+  <autoFilter ref="A1:R35"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="3"/>
+    <tableColumn id="2" name="NIM" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="prodi (uuid)" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="tanggal daftar" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="periode" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Jenis_masuk" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="jk" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Tempat Lahir" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Agama" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="NIK" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="negara" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Kelurahan" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="15" name="ibu" dataCellStyle="Normal"/>
+    <tableColumn id="16" name="Biaya Masuk" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="nisn" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table225" displayName="Table225" ref="A1:R3" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1" dataCellStyle="Normal">
+  <autoFilter ref="A1:R3"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="nama_mahasiswa" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="NIM" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="prodi (uuid)" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="tanggal daftar" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="periode" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Jenis_masuk" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="jk" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Tempat Lahir" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Agama" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="NIK" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="negara" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Kelurahan" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="ID_wilayah" dataCellStyle="Normal"/>
+    <tableColumn id="15" name="ibu" dataCellStyle="Normal"/>
+    <tableColumn id="16" name="Biaya Masuk" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="nisn" dataCellStyle="Normal"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1534,16 +3687,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -2961,6 +5117,4361 @@
         <v>38</v>
       </c>
     </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2254201027</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" s="9">
+        <v>2</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="P26" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2254201028</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="P27" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2254201029</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="9">
+        <v>3</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="P28" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2254201030</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2254201031</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" s="9">
+        <v>2</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="P30" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="9">
+        <v>2254201032</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" s="9">
+        <v>2</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="P31" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2254201033</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2254201034</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" s="9">
+        <v>3</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="P33" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="9">
+        <v>2254201035</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="P34" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2254201036</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="9">
+        <v>3</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="P35" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36">
+        <v>2254201037</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>20221</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" t="s">
+        <v>159</v>
+      </c>
+      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="P36">
+        <v>2425000</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R36" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37">
+        <v>2254201038</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>20221</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="M37" t="s">
+        <v>93</v>
+      </c>
+      <c r="N37" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="P37">
+        <v>2425000</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="R37" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38">
+        <v>2254201039</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>20221</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="M38" t="s">
+        <v>158</v>
+      </c>
+      <c r="N38" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="P38">
+        <v>2425000</v>
+      </c>
+      <c r="Q38" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="R38" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39">
+        <v>2254201040</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>20221</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="P39">
+        <v>2425000</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="R39" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40">
+        <v>2254201041</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>20221</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="P40">
+        <v>2425000</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="R40" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41">
+        <v>2254201042</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>20221</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="M41" t="s">
+        <v>161</v>
+      </c>
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="P41">
+        <v>2425000</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="R41" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42">
+        <v>2254201044</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>20221</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="M42" t="s">
+        <v>292</v>
+      </c>
+      <c r="N42" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="P42">
+        <v>2425000</v>
+      </c>
+      <c r="Q42" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="R42" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="23">
+        <v>2254201045</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="23">
+        <v>20221</v>
+      </c>
+      <c r="F43" s="23">
+        <v>1</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" s="24"/>
+      <c r="P43" s="23">
+        <v>2425000</v>
+      </c>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44">
+        <v>2254201046</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>20221</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="M44" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="P44">
+        <v>2425000</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="R44" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45">
+        <v>2254201047</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>20221</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="M45" t="s">
+        <v>293</v>
+      </c>
+      <c r="N45" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="P45">
+        <v>2425000</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="R45" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46">
+        <v>2254201048</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>20221</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="M46" t="s">
+        <v>294</v>
+      </c>
+      <c r="N46" t="s">
+        <v>36</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="P46">
+        <v>2425000</v>
+      </c>
+      <c r="Q46" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="R46" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47">
+        <v>2254201050</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>20221</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="M47" t="s">
+        <v>319</v>
+      </c>
+      <c r="N47" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="P47">
+        <v>2425000</v>
+      </c>
+      <c r="Q47" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="R47" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48">
+        <v>2254201051</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>20221</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="M48" t="s">
+        <v>277</v>
+      </c>
+      <c r="N48" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="P48">
+        <v>2425000</v>
+      </c>
+      <c r="Q48" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="R48" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49">
+        <v>2254201052</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>20221</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M49" t="s">
+        <v>320</v>
+      </c>
+      <c r="N49" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="P49">
+        <v>2425000</v>
+      </c>
+      <c r="Q49" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="R49" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50">
+        <v>2254201053</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>20221</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="M50" t="s">
+        <v>321</v>
+      </c>
+      <c r="N50" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="P50">
+        <v>2425000</v>
+      </c>
+      <c r="Q50" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="R50" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B51">
+        <v>2254201054</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>20221</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="M51" t="s">
+        <v>322</v>
+      </c>
+      <c r="N51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="P51">
+        <v>2425000</v>
+      </c>
+      <c r="Q51" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="R51" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B52" s="23">
+        <v>2254201055</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="23">
+        <v>20221</v>
+      </c>
+      <c r="F52" s="23">
+        <v>1</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" s="24"/>
+      <c r="P52" s="23">
+        <v>2425000</v>
+      </c>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B53">
+        <v>2254201056</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>20221</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="M53" t="s">
+        <v>323</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="P53">
+        <v>2425000</v>
+      </c>
+      <c r="Q53" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="R53" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54">
+        <v>2254201057</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>20221</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="18"/>
+      <c r="K54" s="20"/>
+      <c r="N54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" s="18"/>
+      <c r="P54">
+        <v>2425000</v>
+      </c>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:R54"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20221</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2"/>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>2425000</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D3"/>
+      <c r="I3"/>
+      <c r="K3"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4"/>
+      <c r="I4"/>
+      <c r="K4"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5"/>
+      <c r="I5"/>
+      <c r="K5"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6"/>
+      <c r="I6"/>
+      <c r="K6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7"/>
+      <c r="I7"/>
+      <c r="K7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8"/>
+      <c r="I8"/>
+      <c r="K8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D9"/>
+      <c r="I9"/>
+      <c r="K9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10"/>
+      <c r="I10"/>
+      <c r="K10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11"/>
+      <c r="I11"/>
+      <c r="K11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+      <c r="I12"/>
+      <c r="K12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+      <c r="I13"/>
+      <c r="K13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+      <c r="I14"/>
+      <c r="K14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+      <c r="I15"/>
+      <c r="K15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+      <c r="I16"/>
+      <c r="K16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="I17"/>
+      <c r="K17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+      <c r="I18"/>
+      <c r="K18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+      <c r="I19"/>
+      <c r="K19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+      <c r="I20"/>
+      <c r="K20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+      <c r="I21"/>
+      <c r="K21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+      <c r="I22"/>
+      <c r="K22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+      <c r="I23"/>
+      <c r="K23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24"/>
+      <c r="I24"/>
+      <c r="K24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+      <c r="I25"/>
+      <c r="K25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+      <c r="I26"/>
+      <c r="K26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27"/>
+      <c r="I27"/>
+      <c r="K27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D28"/>
+      <c r="I28"/>
+      <c r="K28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D29"/>
+      <c r="I29"/>
+      <c r="K29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D30"/>
+      <c r="I30"/>
+      <c r="K30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D31"/>
+      <c r="I31"/>
+      <c r="K31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+      <c r="I32"/>
+      <c r="K32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+      <c r="I33"/>
+      <c r="K33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+      <c r="I34"/>
+      <c r="K34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+      <c r="I35"/>
+      <c r="K35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+      <c r="I36"/>
+      <c r="K36"/>
+      <c r="Q36"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+      <c r="I37"/>
+      <c r="K37"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+      <c r="I38"/>
+      <c r="K38"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+      <c r="I39"/>
+      <c r="K39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+      <c r="I40"/>
+      <c r="K40"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+      <c r="I41"/>
+      <c r="K41"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+      <c r="I42"/>
+      <c r="K42"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+      <c r="I43"/>
+      <c r="K43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+      <c r="I44"/>
+      <c r="K44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+      <c r="I45"/>
+      <c r="K45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+      <c r="I46"/>
+      <c r="K46"/>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D47"/>
+      <c r="I47"/>
+      <c r="K47"/>
+      <c r="Q47"/>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D48"/>
+      <c r="I48"/>
+      <c r="K48"/>
+      <c r="Q48"/>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D49"/>
+      <c r="I49"/>
+      <c r="K49"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D50"/>
+      <c r="I50"/>
+      <c r="K50"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D51"/>
+      <c r="I51"/>
+      <c r="K51"/>
+      <c r="Q51"/>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D52"/>
+      <c r="I52"/>
+      <c r="K52"/>
+      <c r="Q52"/>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D53"/>
+      <c r="I53"/>
+      <c r="K53"/>
+      <c r="Q53"/>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D54"/>
+      <c r="I54"/>
+      <c r="K54"/>
+      <c r="Q54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:R54"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="17">
+        <v>2254250001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20221</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>446</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>460</v>
+      </c>
+      <c r="P2" s="7">
+        <v>2425000</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2254250002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20221</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>447</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>461</v>
+      </c>
+      <c r="P3" s="7">
+        <v>2425000</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2254250003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20221</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="J4" s="25">
+        <v>2</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="P4" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="32">
+        <v>2254250004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20221</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="J5" s="25">
+        <v>2</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="P5" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="32">
+        <v>2254250005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>20221</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" s="25">
+        <v>2</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="P6" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2254250006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>20221</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q7" s="27"/>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="32">
+        <v>2254250007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20221</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="J8" s="25">
+        <v>2</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="P8" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="R8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="32">
+        <v>2254250008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>20221</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="27"/>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="25"/>
+      <c r="P9" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q9" s="27"/>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="32">
+        <v>2254250009</v>
+      </c>
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>20221</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="J10" s="25">
+        <v>2</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="P10" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="32">
+        <v>2254250010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>20221</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="27"/>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="25"/>
+      <c r="P11" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2254250011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>20221</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="25">
+        <v>3</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="P12" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2254250012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>20221</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J13" s="25">
+        <v>3</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="P13" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="32">
+        <v>2254250013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>20221</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="J14" s="25">
+        <v>3</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="P14" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="R14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="32">
+        <v>2254250014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>20221</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="J15" s="25">
+        <v>2</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="P15" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="R15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="32">
+        <v>2254250015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>20221</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="J16" s="25">
+        <v>2</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="P16" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="R16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="32">
+        <v>2254250016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>20221</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="J17" s="25">
+        <v>2</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="P17" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="R17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="32">
+        <v>2254250017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>20221</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="J18" s="25">
+        <v>2</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="P18" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="R18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="32">
+        <v>2254250018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>20221</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="J19" s="25">
+        <v>2</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="P19" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="R19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="32">
+        <v>2254250019</v>
+      </c>
+      <c r="C20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>20221</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="J20" s="25">
+        <v>2</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="P20" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="R20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="32">
+        <v>2254250020</v>
+      </c>
+      <c r="C21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>20221</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="J21" s="25">
+        <v>2</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="P21" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="R21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="32">
+        <v>2254250021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>20221</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="J22" s="25">
+        <v>2</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="P22" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="R22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="32">
+        <v>2254250022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>20221</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="J23" s="25">
+        <v>2</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="P23" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="R23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" s="32">
+        <v>2254250023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>20221</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="J24" s="25">
+        <v>2</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="P24" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="R24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="32">
+        <v>2254250024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>20221</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="J25" s="25">
+        <v>2</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="P25" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="R25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" s="32">
+        <v>2254250025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>20221</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="27"/>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="25"/>
+      <c r="N26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="25"/>
+      <c r="P26" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q26" s="27"/>
+      <c r="R26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="32">
+        <v>2254250026</v>
+      </c>
+      <c r="C27" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>20221</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="27"/>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="25"/>
+      <c r="N27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="25"/>
+      <c r="P27" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q27" s="27"/>
+      <c r="R27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="32">
+        <v>2254250027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>20221</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="J28" s="25">
+        <v>2</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="P28" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="R28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="32">
+        <v>2254250028</v>
+      </c>
+      <c r="C29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>20221</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="J29" s="25">
+        <v>2</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="P29" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="R29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="32">
+        <v>2254250029</v>
+      </c>
+      <c r="C30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>20221</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="27"/>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="25"/>
+      <c r="N30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="25"/>
+      <c r="P30" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q30" s="27"/>
+      <c r="R30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="32">
+        <v>2254250030</v>
+      </c>
+      <c r="C31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>20221</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="J31" s="25">
+        <v>2</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="P31" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="R31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="32">
+        <v>2254250031</v>
+      </c>
+      <c r="C32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>20221</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="J32" s="25">
+        <v>3</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="P32" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q32" s="27"/>
+      <c r="R32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="32">
+        <v>2254250032</v>
+      </c>
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>20221</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="J33" s="25">
+        <v>2</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="P33" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="R33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B34" s="32">
+        <v>2254250033</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>20221</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="J34" s="25">
+        <v>3</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="P34" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="R34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B35" s="32">
+        <v>2254250034</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>20221</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="J35" s="25">
+        <v>3</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="P35" s="27">
+        <v>2425000</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="R35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:R54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20221</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2"/>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>2425000</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D3"/>
+      <c r="I3"/>
+      <c r="K3"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4"/>
+      <c r="I4"/>
+      <c r="K4"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5"/>
+      <c r="I5"/>
+      <c r="K5"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6"/>
+      <c r="I6"/>
+      <c r="K6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7"/>
+      <c r="I7"/>
+      <c r="K7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8"/>
+      <c r="I8"/>
+      <c r="K8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D9"/>
+      <c r="I9"/>
+      <c r="K9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10"/>
+      <c r="I10"/>
+      <c r="K10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11"/>
+      <c r="I11"/>
+      <c r="K11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+      <c r="I12"/>
+      <c r="K12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+      <c r="I13"/>
+      <c r="K13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+      <c r="I14"/>
+      <c r="K14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+      <c r="I15"/>
+      <c r="K15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+      <c r="I16"/>
+      <c r="K16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="I17"/>
+      <c r="K17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+      <c r="I18"/>
+      <c r="K18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+      <c r="I19"/>
+      <c r="K19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+      <c r="I20"/>
+      <c r="K20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+      <c r="I21"/>
+      <c r="K21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+      <c r="I22"/>
+      <c r="K22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+      <c r="I23"/>
+      <c r="K23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24"/>
+      <c r="I24"/>
+      <c r="K24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+      <c r="I25"/>
+      <c r="K25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+      <c r="I26"/>
+      <c r="K26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27"/>
+      <c r="I27"/>
+      <c r="K27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D28"/>
+      <c r="I28"/>
+      <c r="K28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D29"/>
+      <c r="I29"/>
+      <c r="K29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D30"/>
+      <c r="I30"/>
+      <c r="K30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D31"/>
+      <c r="I31"/>
+      <c r="K31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+      <c r="I32"/>
+      <c r="K32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+      <c r="I33"/>
+      <c r="K33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+      <c r="I34"/>
+      <c r="K34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+      <c r="I35"/>
+      <c r="K35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+      <c r="I36"/>
+      <c r="K36"/>
+      <c r="Q36"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+      <c r="I37"/>
+      <c r="K37"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+      <c r="I38"/>
+      <c r="K38"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+      <c r="I39"/>
+      <c r="K39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+      <c r="I40"/>
+      <c r="K40"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+      <c r="I41"/>
+      <c r="K41"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+      <c r="I42"/>
+      <c r="K42"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+      <c r="I43"/>
+      <c r="K43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+      <c r="I44"/>
+      <c r="K44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+      <c r="I45"/>
+      <c r="K45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+      <c r="I46"/>
+      <c r="K46"/>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D47"/>
+      <c r="I47"/>
+      <c r="K47"/>
+      <c r="Q47"/>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D48"/>
+      <c r="I48"/>
+      <c r="K48"/>
+      <c r="Q48"/>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D49"/>
+      <c r="I49"/>
+      <c r="K49"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D50"/>
+      <c r="I50"/>
+      <c r="K50"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D51"/>
+      <c r="I51"/>
+      <c r="K51"/>
+      <c r="Q51"/>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D52"/>
+      <c r="I52"/>
+      <c r="K52"/>
+      <c r="Q52"/>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D53"/>
+      <c r="I53"/>
+      <c r="K53"/>
+      <c r="Q53"/>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D54"/>
+      <c r="I54"/>
+      <c r="K54"/>
+      <c r="Q54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="agribisnis" sheetId="1" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="516">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -2676,6 +2676,9 @@
   </si>
   <si>
     <t>311ea2b8-588f-410b-ad65-a3c9e7997310</t>
+  </si>
+  <si>
+    <t>YIWILI</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2749,27 +2752,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2913,7 +2895,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2962,17 +2944,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2991,10 +2963,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3007,16 +2979,16 @@
   <dxfs count="27">
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color rgb="FF000000"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color rgb="FF000000"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3031,6 +3003,21 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3055,32 +3042,17 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -3098,16 +3070,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color rgb="FF000000"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color rgb="FF000000"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3278,16 +3250,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3317,7 +3289,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R54" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R54" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:R54"/>
   <tableColumns count="18">
     <tableColumn id="1" name="nama_mahasiswa" dataDxfId="23"/>
@@ -3344,7 +3316,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:R3" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:R3" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" dataCellStyle="Normal">
   <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="nama_mahasiswa" dataCellStyle="Normal"/>
@@ -3371,10 +3343,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A1:R35" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A1:R35" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" dataCellStyle="Normal">
   <autoFilter ref="A1:R35"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="3"/>
+    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="8"/>
     <tableColumn id="2" name="NIM" dataCellStyle="Normal"/>
     <tableColumn id="3" name="prodi (uuid)" dataCellStyle="Normal"/>
     <tableColumn id="4" name="tanggal daftar" dataCellStyle="Normal"/>
@@ -3382,15 +3354,15 @@
     <tableColumn id="6" name="Jenis_masuk" dataCellStyle="Normal"/>
     <tableColumn id="7" name="jk" dataCellStyle="Normal"/>
     <tableColumn id="8" name="Tempat Lahir" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="7" dataCellStyle="Normal"/>
     <tableColumn id="10" name="Agama" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="NIK" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="NIK" dataDxfId="6" dataCellStyle="Normal"/>
     <tableColumn id="12" name="negara" dataCellStyle="Normal"/>
     <tableColumn id="13" name="Kelurahan" dataCellStyle="Normal"/>
-    <tableColumn id="14" name="ID_wilayah" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="15" name="ibu" dataCellStyle="Normal"/>
-    <tableColumn id="16" name="Biaya Masuk" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="17" name="nisn" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="16" name="Biaya Masuk" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="nisn" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="18" name="id_jalur_daftar" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3398,7 +3370,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table225" displayName="Table225" ref="A1:R3" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table225" displayName="Table225" ref="A1:R3" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" dataCellStyle="Normal">
   <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="nama_mahasiswa" dataCellStyle="Normal"/>
@@ -3692,8 +3664,8 @@
   </sheetPr>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5678,960 +5650,1018 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="9">
         <v>2254201037</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="9">
         <v>20221</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="9">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="9">
         <v>2</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="M36" t="s">
+      <c r="L36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="18" t="s">
+      <c r="O36" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q36" s="18" t="s">
+      <c r="Q36" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="R36" s="18" t="s">
+      <c r="R36" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="9">
         <v>2254201038</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="9">
         <v>20221</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="9">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="9">
         <v>2</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M37" t="s">
+      <c r="L37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="18" t="s">
+      <c r="O37" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q37" s="18" t="s">
+      <c r="Q37" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="R37" s="18" t="s">
+      <c r="R37" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="9">
         <v>2254201039</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="9">
         <v>20221</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="9">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="9">
         <v>2</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="M38" t="s">
+      <c r="L38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q38" s="18" t="s">
+      <c r="Q38" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="R38" s="18" t="s">
+      <c r="R38" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="9">
         <v>2254201040</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <v>20221</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="9">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="9">
         <v>2</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="M39" t="s">
+      <c r="L39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="O39" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="R39" s="18" t="s">
+      <c r="R39" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="9">
         <v>2254201041</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="9">
         <v>20221</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="9">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="9">
         <v>2</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="M40" t="s">
+      <c r="L40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="18" t="s">
+      <c r="O40" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q40" s="18" t="s">
+      <c r="Q40" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="R40" s="18" t="s">
+      <c r="R40" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="9">
         <v>2254201042</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="9">
         <v>20221</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="9">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="9">
         <v>3</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M41" t="s">
+      <c r="L41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="18" t="s">
+      <c r="O41" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q41" s="18" t="s">
+      <c r="Q41" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="R41" s="18" t="s">
+      <c r="R41" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="9">
         <v>2254201044</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="9">
         <v>20221</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="9">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="9">
         <v>2</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M42" t="s">
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="18" t="s">
+      <c r="O42" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q42" s="18" t="s">
+      <c r="Q42" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="R42" s="18" t="s">
+      <c r="R42" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="19">
         <v>2254201045</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="19">
         <v>20221</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="19">
         <v>1</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23" t="s">
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O43" s="24"/>
-      <c r="P43" s="23">
+      <c r="O43" s="20"/>
+      <c r="P43" s="19">
         <v>2425000</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24" t="s">
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="9">
         <v>2254201046</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="9">
         <v>20221</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="9">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="9">
         <v>3</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="M44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="L44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O44" s="18" t="s">
+      <c r="O44" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q44" s="18" t="s">
+      <c r="Q44" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="R44" s="18" t="s">
+      <c r="R44" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="9">
         <v>2254201047</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="9">
         <v>20221</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="9">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="9">
         <v>2</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="M45" t="s">
-        <v>293</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="L45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="N45" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q45" s="18" t="s">
+      <c r="Q45" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="R45" s="18" t="s">
+      <c r="R45" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="9">
         <v>2254201048</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="9">
         <v>20221</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="9">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="9">
         <v>2</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M46" t="s">
-        <v>294</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="L46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="N46" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="O46" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q46" s="18" t="s">
+      <c r="Q46" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="R46" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="9">
         <v>2254201050</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="9">
         <v>20221</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="9">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="9">
         <v>2</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M47" t="s">
+      <c r="L47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2254201051</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J48" s="9">
+        <v>2</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O47" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="P47">
+      <c r="O48" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P48" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q47" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="R47" s="18" t="s">
+      <c r="Q48" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="R48" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="B48">
-        <v>2254201051</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2254201052</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D49" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E48">
+      <c r="E49" s="9">
         <v>20221</v>
       </c>
-      <c r="F48">
+      <c r="F49" s="9">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="J48">
+      <c r="G49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J49" s="9">
+        <v>3</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="P49" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2254201053</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="J50" s="9">
         <v>2</v>
       </c>
-      <c r="K48" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="M48" t="s">
-        <v>277</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="K50" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N50" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O48" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="P48">
+      <c r="O50" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="P50" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q48" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="R48" s="18" t="s">
+      <c r="Q50" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="R50" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="B49">
-        <v>2254201052</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2254201054</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D51" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E49">
+      <c r="E51" s="9">
         <v>20221</v>
       </c>
-      <c r="F49">
+      <c r="F51" s="9">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="J49">
-        <v>3</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="M49" t="s">
-        <v>320</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="H51" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51" s="9">
+        <v>2</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="N51" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="P49">
+      <c r="O51" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="P51" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q49" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="R49" s="18" t="s">
+      <c r="Q51" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="R51" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="B50">
-        <v>2254201053</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B52" s="19">
+        <v>2254201055</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D52" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E50">
+      <c r="E52" s="19">
         <v>20221</v>
       </c>
-      <c r="F50">
+      <c r="F52" s="19">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" s="20"/>
+      <c r="P52" s="19">
+        <v>2425000</v>
+      </c>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2254201056</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="J50">
+      <c r="H53" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J53" s="9">
         <v>2</v>
       </c>
-      <c r="K50" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="M50" t="s">
-        <v>321</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="K53" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O50" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="P50">
+      <c r="O53" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="P53" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q50" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="R50" s="18" t="s">
+      <c r="Q53" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="R53" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="B51">
-        <v>2254201054</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" s="19">
+        <v>2254201057</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D54" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E51">
+      <c r="E54" s="19">
         <v>20221</v>
       </c>
-      <c r="F51">
+      <c r="F54" s="19">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="K51" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="M51" t="s">
-        <v>322</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N54" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="P51">
+      <c r="O54" s="20"/>
+      <c r="P54" s="19">
         <v>2425000</v>
       </c>
-      <c r="Q51" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="R51" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B52" s="23">
-        <v>2254201055</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="23">
-        <v>20221</v>
-      </c>
-      <c r="F52" s="23">
-        <v>1</v>
-      </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O52" s="24"/>
-      <c r="P52" s="23">
-        <v>2425000</v>
-      </c>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B53">
-        <v>2254201056</v>
-      </c>
-      <c r="C53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53">
-        <v>20221</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="M53" t="s">
-        <v>323</v>
-      </c>
-      <c r="N53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O53" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="P53">
-        <v>2425000</v>
-      </c>
-      <c r="Q53" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="R53" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B54">
-        <v>2254201057</v>
-      </c>
-      <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54">
-        <v>20221</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="18"/>
-      <c r="K54" s="20"/>
-      <c r="N54" t="s">
-        <v>36</v>
-      </c>
-      <c r="O54" s="18"/>
-      <c r="P54">
-        <v>2425000</v>
-      </c>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18" t="s">
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7117,7 +7147,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7141,7 +7171,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -7156,13 +7186,13 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="12" t="s">
@@ -7173,7 +7203,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>337</v>
       </c>
       <c r="B2" s="17">
@@ -7229,10 +7259,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>2254250002</v>
       </c>
       <c r="C3" t="s">
@@ -7285,10 +7315,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="28">
         <v>2254250003</v>
       </c>
       <c r="C4" t="s">
@@ -7303,37 +7333,37 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="21">
         <v>2</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="23" t="s">
         <v>420</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="21" t="s">
         <v>160</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="23" t="s">
         <v>489</v>
       </c>
       <c r="R4" t="s">
@@ -7341,10 +7371,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="28">
         <v>2254250004</v>
       </c>
       <c r="C5" t="s">
@@ -7359,37 +7389,37 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="21">
         <v>2</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="23" t="s">
         <v>421</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="23" t="s">
         <v>490</v>
       </c>
       <c r="R5" t="s">
@@ -7397,10 +7427,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="28">
         <v>2254250005</v>
       </c>
       <c r="C6" t="s">
@@ -7415,37 +7445,37 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="21">
         <v>2</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="23" t="s">
         <v>422</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="21" t="s">
         <v>448</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="23" t="s">
         <v>491</v>
       </c>
       <c r="R6" t="s">
@@ -7453,10 +7483,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="28">
         <v>2254250006</v>
       </c>
       <c r="C7" t="s">
@@ -7471,32 +7501,32 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="27"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="23"/>
       <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="25"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="27">
+      <c r="O7" s="21"/>
+      <c r="P7" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="23"/>
       <c r="R7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="28">
         <v>2254250007</v>
       </c>
       <c r="C8" t="s">
@@ -7511,37 +7541,37 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="23" t="s">
         <v>423</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="21" t="s">
         <v>449</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="23" t="s">
         <v>492</v>
       </c>
       <c r="R8" t="s">
@@ -7549,10 +7579,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="28">
         <v>2254250008</v>
       </c>
       <c r="C9" t="s">
@@ -7567,32 +7597,32 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="27"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="23"/>
       <c r="L9" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="25"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="27">
+      <c r="O9" s="21"/>
+      <c r="P9" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="23"/>
       <c r="R9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="28">
         <v>2254250009</v>
       </c>
       <c r="C10" t="s">
@@ -7607,37 +7637,37 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="21">
         <v>2</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="23" t="s">
         <v>424</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="21" t="s">
         <v>449</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="23" t="s">
         <v>493</v>
       </c>
       <c r="R10" t="s">
@@ -7645,10 +7675,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="28">
         <v>2254250010</v>
       </c>
       <c r="C11" t="s">
@@ -7663,32 +7693,32 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="27"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="23"/>
       <c r="L11" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="25"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="27">
+      <c r="O11" s="21"/>
+      <c r="P11" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q11" s="27"/>
+      <c r="Q11" s="23"/>
       <c r="R11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="28">
         <v>2254250011</v>
       </c>
       <c r="C12" t="s">
@@ -7703,37 +7733,37 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="21">
         <v>3</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="23" t="s">
         <v>425</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="23" t="s">
         <v>494</v>
       </c>
       <c r="R12" t="s">
@@ -7741,10 +7771,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="28">
         <v>2254250012</v>
       </c>
       <c r="C13" t="s">
@@ -7759,37 +7789,37 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="21">
         <v>3</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="23" t="s">
         <v>426</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="21" t="s">
         <v>161</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="23" t="s">
         <v>495</v>
       </c>
       <c r="R13" t="s">
@@ -7797,10 +7827,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="28">
         <v>2254250013</v>
       </c>
       <c r="C14" t="s">
@@ -7815,37 +7845,37 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="21">
         <v>3</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="23" t="s">
         <v>427</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="21" t="s">
         <v>450</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="23" t="s">
         <v>496</v>
       </c>
       <c r="R14" t="s">
@@ -7853,10 +7883,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="28">
         <v>2254250014</v>
       </c>
       <c r="C15" t="s">
@@ -7871,37 +7901,37 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="21">
         <v>2</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="23" t="s">
         <v>428</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="21" t="s">
         <v>451</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="23" t="s">
         <v>497</v>
       </c>
       <c r="R15" t="s">
@@ -7909,10 +7939,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="28">
         <v>2254250015</v>
       </c>
       <c r="C16" t="s">
@@ -7927,37 +7957,37 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="21">
         <v>2</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="23" t="s">
         <v>429</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="21" t="s">
         <v>161</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="23" t="s">
         <v>498</v>
       </c>
       <c r="R16" t="s">
@@ -7965,10 +7995,10 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="28">
         <v>2254250016</v>
       </c>
       <c r="C17" t="s">
@@ -7983,35 +8013,35 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="21">
         <v>2</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="23" t="s">
         <v>430</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="25"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="23" t="s">
         <v>499</v>
       </c>
       <c r="R17" t="s">
@@ -8019,10 +8049,10 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="28">
         <v>2254250017</v>
       </c>
       <c r="C18" t="s">
@@ -8037,37 +8067,37 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="21">
         <v>2</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="23" t="s">
         <v>431</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="21" t="s">
         <v>452</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="23" t="s">
         <v>500</v>
       </c>
       <c r="R18" t="s">
@@ -8075,10 +8105,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="28">
         <v>2254250018</v>
       </c>
       <c r="C19" t="s">
@@ -8093,37 +8123,37 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="21">
         <v>2</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="23" t="s">
         <v>432</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="M19" s="21" t="s">
         <v>91</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="Q19" s="23" t="s">
         <v>501</v>
       </c>
       <c r="R19" t="s">
@@ -8131,10 +8161,10 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="28">
         <v>2254250019</v>
       </c>
       <c r="C20" t="s">
@@ -8149,37 +8179,37 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="21">
         <v>2</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="23" t="s">
         <v>433</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="21" t="s">
         <v>453</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="Q20" s="23" t="s">
         <v>502</v>
       </c>
       <c r="R20" t="s">
@@ -8187,10 +8217,10 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="28">
         <v>2254250020</v>
       </c>
       <c r="C21" t="s">
@@ -8205,37 +8235,37 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="21">
         <v>2</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="23" t="s">
         <v>434</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="21" t="s">
         <v>454</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="23" t="s">
         <v>503</v>
       </c>
       <c r="R21" t="s">
@@ -8243,10 +8273,10 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="28">
         <v>2254250021</v>
       </c>
       <c r="C22" t="s">
@@ -8261,37 +8291,37 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="21">
         <v>2</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="23" t="s">
         <v>435</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="21" t="s">
         <v>455</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="23" t="s">
         <v>504</v>
       </c>
       <c r="R22" t="s">
@@ -8299,10 +8329,10 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="28">
         <v>2254250022</v>
       </c>
       <c r="C23" t="s">
@@ -8317,37 +8347,37 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="21">
         <v>2</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="23" t="s">
         <v>436</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="21" t="s">
         <v>456</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="P23" s="27">
+      <c r="P23" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="Q23" s="23" t="s">
         <v>505</v>
       </c>
       <c r="R23" t="s">
@@ -8355,10 +8385,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="28">
         <v>2254250023</v>
       </c>
       <c r="C24" t="s">
@@ -8373,37 +8403,37 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="21">
         <v>2</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="23" t="s">
         <v>437</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="21" t="s">
         <v>386</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q24" s="27" t="s">
+      <c r="Q24" s="23" t="s">
         <v>506</v>
       </c>
       <c r="R24" t="s">
@@ -8411,10 +8441,10 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="28">
         <v>2254250024</v>
       </c>
       <c r="C25" t="s">
@@ -8429,37 +8459,37 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="23" t="s">
         <v>438</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="21" t="s">
         <v>457</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="23" t="s">
         <v>507</v>
       </c>
       <c r="R25" t="s">
@@ -8467,10 +8497,10 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="28">
         <v>2254250025</v>
       </c>
       <c r="C26" t="s">
@@ -8485,32 +8515,32 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="27"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="23"/>
       <c r="L26" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="25"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="27">
+      <c r="O26" s="21"/>
+      <c r="P26" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="23"/>
       <c r="R26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="28">
         <v>2254250026</v>
       </c>
       <c r="C27" t="s">
@@ -8525,32 +8555,32 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="27"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="23"/>
       <c r="L27" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="25"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="27">
+      <c r="O27" s="21"/>
+      <c r="P27" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="23"/>
       <c r="R27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="28">
         <v>2254250027</v>
       </c>
       <c r="C28" t="s">
@@ -8565,37 +8595,37 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="21">
         <v>2</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="23" t="s">
         <v>439</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="21" t="s">
         <v>454</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="Q28" s="23" t="s">
         <v>508</v>
       </c>
       <c r="R28" t="s">
@@ -8603,10 +8633,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="28">
         <v>2254250028</v>
       </c>
       <c r="C29" t="s">
@@ -8621,37 +8651,37 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="21">
         <v>2</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="23" t="s">
         <v>440</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="21" t="s">
         <v>388</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="Q29" s="23" t="s">
         <v>509</v>
       </c>
       <c r="R29" t="s">
@@ -8659,10 +8689,10 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="28">
         <v>2254250029</v>
       </c>
       <c r="C30" t="s">
@@ -8677,32 +8707,32 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="27"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="23"/>
       <c r="L30" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="25"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="27">
+      <c r="O30" s="21"/>
+      <c r="P30" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="23"/>
       <c r="R30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="28">
         <v>2254250030</v>
       </c>
       <c r="C31" t="s">
@@ -8717,37 +8747,37 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="21">
         <v>2</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="23" t="s">
         <v>441</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="21" t="s">
         <v>91</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q31" s="27" t="s">
+      <c r="Q31" s="23" t="s">
         <v>510</v>
       </c>
       <c r="R31" t="s">
@@ -8755,10 +8785,10 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="28">
         <v>2254250031</v>
       </c>
       <c r="C32" t="s">
@@ -8773,46 +8803,46 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="21">
         <v>3</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="23" t="s">
         <v>442</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M32" s="21" t="s">
         <v>458</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="P32" s="27">
+      <c r="P32" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="23"/>
       <c r="R32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="28">
         <v>2254250032</v>
       </c>
       <c r="C33" t="s">
@@ -8827,37 +8857,37 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="21">
         <v>2</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="23" t="s">
         <v>443</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
-      <c r="M33" s="25" t="s">
+      <c r="M33" s="21" t="s">
         <v>391</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="P33" s="27">
+      <c r="P33" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q33" s="27" t="s">
+      <c r="Q33" s="23" t="s">
         <v>511</v>
       </c>
       <c r="R33" t="s">
@@ -8865,10 +8895,10 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="28">
         <v>2254250033</v>
       </c>
       <c r="C34" t="s">
@@ -8883,37 +8913,37 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="21">
         <v>3</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="23" t="s">
         <v>444</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="25" t="s">
+      <c r="M34" s="21" t="s">
         <v>159</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="P34" s="27">
+      <c r="P34" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q34" s="27" t="s">
+      <c r="Q34" s="23" t="s">
         <v>512</v>
       </c>
       <c r="R34" t="s">
@@ -8921,10 +8951,10 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="28">
         <v>2254250034</v>
       </c>
       <c r="C35" t="s">
@@ -8939,37 +8969,37 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="21">
         <v>3</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="23" t="s">
         <v>445</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M35" s="21" t="s">
         <v>459</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q35" s="27" t="s">
+      <c r="Q35" s="23" t="s">
         <v>513</v>
       </c>
       <c r="R35" t="s">
@@ -9050,7 +9080,7 @@
   </sheetPr>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="agribisnis" sheetId="1" r:id="rId1"/>
@@ -1835,9 +1835,6 @@
     <t>MANA TABUNI</t>
   </si>
   <si>
-    <t>MARIANHE ALUA</t>
-  </si>
-  <si>
     <t>0018652096</t>
   </si>
   <si>
@@ -2679,6 +2676,9 @@
   </si>
   <si>
     <t>YIWILI</t>
+  </si>
+  <si>
+    <t>MARIANHE ALUA.</t>
   </si>
 </sst>
 </file>
@@ -3664,8 +3664,8 @@
   </sheetPr>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A28" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,7 +5139,7 @@
         <v>2425000</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>38</v>
@@ -5195,7 +5195,7 @@
         <v>2425000</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>38</v>
@@ -5251,7 +5251,7 @@
         <v>2425000</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>38</v>
@@ -5307,7 +5307,7 @@
         <v>2425000</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>38</v>
@@ -5363,7 +5363,7 @@
         <v>2425000</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R30" s="9" t="s">
         <v>38</v>
@@ -5419,7 +5419,7 @@
         <v>2425000</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>38</v>
@@ -5475,7 +5475,7 @@
         <v>2425000</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R32" s="9" t="s">
         <v>38</v>
@@ -5587,71 +5587,15 @@
         <v>2425000</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R34" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="9">
-        <v>2254201036</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="9">
-        <v>20221</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="J35" s="9">
-        <v>3</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="P35" s="9">
-        <v>2425000</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" s="9">
         <v>2254201037</v>
@@ -5672,16 +5616,16 @@
         <v>16</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J36" s="9">
         <v>2</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>17</v>
@@ -5693,13 +5637,13 @@
         <v>36</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P36" s="9">
         <v>2425000</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R36" s="11" t="s">
         <v>38</v>
@@ -5707,7 +5651,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B37" s="9">
         <v>2254201038</v>
@@ -5728,16 +5672,16 @@
         <v>16</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J37" s="9">
         <v>2</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>17</v>
@@ -5749,13 +5693,13 @@
         <v>36</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P37" s="9">
         <v>2425000</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>38</v>
@@ -5763,7 +5707,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" s="9">
         <v>2254201039</v>
@@ -5784,16 +5728,16 @@
         <v>16</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J38" s="9">
         <v>2</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>17</v>
@@ -5805,13 +5749,13 @@
         <v>36</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P38" s="9">
         <v>2425000</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R38" s="11" t="s">
         <v>38</v>
@@ -5819,7 +5763,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B39" s="9">
         <v>2254201040</v>
@@ -5840,16 +5784,16 @@
         <v>56</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J39" s="9">
         <v>2</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>17</v>
@@ -5861,13 +5805,13 @@
         <v>36</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P39" s="9">
         <v>2425000</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R39" s="11" t="s">
         <v>38</v>
@@ -5875,7 +5819,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B40" s="9">
         <v>2254201041</v>
@@ -5896,16 +5840,16 @@
         <v>56</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J40" s="9">
         <v>2</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>17</v>
@@ -5917,13 +5861,13 @@
         <v>36</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P40" s="9">
         <v>2425000</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R40" s="11" t="s">
         <v>38</v>
@@ -5931,7 +5875,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" s="9">
         <v>2254201042</v>
@@ -5952,7 +5896,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>207</v>
@@ -5961,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>17</v>
@@ -5973,13 +5917,13 @@
         <v>36</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P41" s="9">
         <v>2425000</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R41" s="11" t="s">
         <v>38</v>
@@ -5987,7 +5931,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42" s="9">
         <v>2254201044</v>
@@ -6008,34 +5952,34 @@
         <v>16</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J42" s="9">
         <v>2</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P42" s="9">
         <v>2425000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>38</v>
@@ -6043,7 +5987,7 @@
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B43" s="19">
         <v>2254201045</v>
@@ -6083,7 +6027,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" s="9">
         <v>2254201046</v>
@@ -6107,13 +6051,13 @@
         <v>62</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J44" s="9">
         <v>3</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>17</v>
@@ -6125,13 +6069,13 @@
         <v>36</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P44" s="9">
         <v>2425000</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R44" s="11" t="s">
         <v>38</v>
@@ -6139,7 +6083,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B45" s="9">
         <v>2254201047</v>
@@ -6160,16 +6104,16 @@
         <v>56</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J45" s="9">
         <v>2</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>17</v>
@@ -6181,13 +6125,13 @@
         <v>36</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P45" s="9">
         <v>2425000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R45" s="11" t="s">
         <v>38</v>
@@ -6195,7 +6139,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B46" s="9">
         <v>2254201048</v>
@@ -6216,16 +6160,16 @@
         <v>16</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J46" s="9">
         <v>2</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>17</v>
@@ -6237,13 +6181,13 @@
         <v>36</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P46" s="9">
         <v>2425000</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R46" s="11" t="s">
         <v>38</v>
@@ -6251,7 +6195,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47" s="9">
         <v>2254201050</v>
@@ -6272,16 +6216,16 @@
         <v>16</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J47" s="9">
         <v>2</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>17</v>
@@ -6291,13 +6235,13 @@
         <v>36</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P47" s="9">
         <v>2425000</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>38</v>
@@ -6305,7 +6249,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B48" s="9">
         <v>2254201051</v>
@@ -6326,16 +6270,16 @@
         <v>56</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J48" s="9">
         <v>2</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>17</v>
@@ -6347,13 +6291,13 @@
         <v>36</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P48" s="9">
         <v>2425000</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R48" s="11" t="s">
         <v>38</v>
@@ -6361,7 +6305,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B49" s="9">
         <v>2254201052</v>
@@ -6385,13 +6329,13 @@
         <v>194</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J49" s="9">
         <v>3</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>17</v>
@@ -6403,13 +6347,13 @@
         <v>36</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P49" s="9">
         <v>2425000</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R49" s="11" t="s">
         <v>38</v>
@@ -6417,7 +6361,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B50" s="9">
         <v>2254201053</v>
@@ -6438,16 +6382,16 @@
         <v>16</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J50" s="9">
         <v>2</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>17</v>
@@ -6459,13 +6403,13 @@
         <v>36</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P50" s="9">
         <v>2425000</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>38</v>
@@ -6473,7 +6417,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" s="9">
         <v>2254201054</v>
@@ -6497,31 +6441,31 @@
         <v>135</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J51" s="9">
         <v>2</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N51" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P51" s="9">
         <v>2425000</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R51" s="11" t="s">
         <v>38</v>
@@ -6529,7 +6473,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B52" s="19">
         <v>2254201055</v>
@@ -6571,7 +6515,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B53" s="9">
         <v>2254201056</v>
@@ -6592,16 +6536,16 @@
         <v>16</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J53" s="9">
         <v>2</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>17</v>
@@ -6611,13 +6555,13 @@
         <v>36</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P53" s="9">
         <v>2425000</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R53" s="11" t="s">
         <v>38</v>
@@ -6625,7 +6569,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B54" s="19">
         <v>2254201057</v>
@@ -6682,8 +6626,8 @@
   </sheetPr>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="A3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6765,7 +6709,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -6793,10 +6737,60 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D3"/>
-      <c r="I3"/>
-      <c r="K3"/>
-      <c r="Q3"/>
+      <c r="A3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2254211054</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="P3" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4"/>
@@ -7204,13 +7198,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="17">
         <v>2254250001</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -7225,34 +7219,34 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P2" s="7">
         <v>2425000</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R2" t="s">
         <v>38</v>
@@ -7260,13 +7254,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="18">
         <v>2254250002</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -7281,34 +7275,34 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P3" s="7">
         <v>2425000</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R3" t="s">
         <v>38</v>
@@ -7316,13 +7310,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4" s="28">
         <v>2254250003</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -7340,13 +7334,13 @@
         <v>132</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J4" s="21">
         <v>2</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -7358,13 +7352,13 @@
         <v>36</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P4" s="23">
         <v>2425000</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R4" t="s">
         <v>38</v>
@@ -7372,13 +7366,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="28">
         <v>2254250004</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -7393,16 +7387,16 @@
         <v>16</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J5" s="21">
         <v>2</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -7414,13 +7408,13 @@
         <v>36</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P5" s="23">
         <v>2425000</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R5" t="s">
         <v>38</v>
@@ -7428,13 +7422,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="28">
         <v>2254250005</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -7449,34 +7443,34 @@
         <v>16</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J6" s="21">
         <v>2</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P6" s="23">
         <v>2425000</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R6" t="s">
         <v>38</v>
@@ -7484,13 +7478,13 @@
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" s="28">
         <v>2254250006</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -7524,13 +7518,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="28">
         <v>2254250007</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -7545,34 +7539,34 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J8" s="21">
         <v>2</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P8" s="23">
         <v>2425000</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R8" t="s">
         <v>38</v>
@@ -7580,13 +7574,13 @@
     </row>
     <row r="9" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" s="28">
         <v>2254250008</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -7620,13 +7614,13 @@
     </row>
     <row r="10" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="28">
         <v>2254250009</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -7641,34 +7635,34 @@
         <v>16</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J10" s="21">
         <v>2</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P10" s="23">
         <v>2425000</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R10" t="s">
         <v>38</v>
@@ -7676,13 +7670,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="28">
         <v>2254250010</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -7716,13 +7710,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="28">
         <v>2254250011</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -7737,16 +7731,16 @@
         <v>56</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J12" s="21">
         <v>3</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -7758,13 +7752,13 @@
         <v>36</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P12" s="23">
         <v>2425000</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R12" t="s">
         <v>38</v>
@@ -7772,13 +7766,13 @@
     </row>
     <row r="13" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="28">
         <v>2254250012</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -7796,13 +7790,13 @@
         <v>132</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J13" s="21">
         <v>3</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -7814,13 +7808,13 @@
         <v>36</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P13" s="23">
         <v>2425000</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R13" t="s">
         <v>38</v>
@@ -7828,13 +7822,13 @@
     </row>
     <row r="14" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" s="28">
         <v>2254250013</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -7849,34 +7843,34 @@
         <v>56</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J14" s="21">
         <v>3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P14" s="23">
         <v>2425000</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R14" t="s">
         <v>38</v>
@@ -7884,13 +7878,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" s="28">
         <v>2254250014</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -7905,34 +7899,34 @@
         <v>16</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J15" s="21">
         <v>2</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P15" s="23">
         <v>2425000</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R15" t="s">
         <v>38</v>
@@ -7940,13 +7934,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" s="28">
         <v>2254250015</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -7961,16 +7955,16 @@
         <v>16</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J16" s="21">
         <v>2</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -7982,13 +7976,13 @@
         <v>36</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P16" s="23">
         <v>2425000</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R16" t="s">
         <v>38</v>
@@ -7996,13 +7990,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" s="28">
         <v>2254250016</v>
       </c>
       <c r="C17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -8020,13 +8014,13 @@
         <v>40</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J17" s="21">
         <v>2</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -8036,13 +8030,13 @@
         <v>36</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P17" s="23">
         <v>2425000</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R17" t="s">
         <v>38</v>
@@ -8050,13 +8044,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18" s="28">
         <v>2254250017</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -8071,34 +8065,34 @@
         <v>56</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J18" s="21">
         <v>2</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P18" s="23">
         <v>2425000</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R18" t="s">
         <v>38</v>
@@ -8106,13 +8100,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B19" s="28">
         <v>2254250018</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -8130,13 +8124,13 @@
         <v>131</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J19" s="21">
         <v>2</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -8148,13 +8142,13 @@
         <v>36</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P19" s="23">
         <v>2425000</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R19" t="s">
         <v>38</v>
@@ -8162,13 +8156,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B20" s="28">
         <v>2254250019</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -8183,34 +8177,34 @@
         <v>16</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J20" s="21">
         <v>2</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P20" s="23">
         <v>2425000</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R20" t="s">
         <v>38</v>
@@ -8218,13 +8212,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B21" s="28">
         <v>2254250020</v>
       </c>
       <c r="C21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -8239,34 +8233,34 @@
         <v>16</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J21" s="21">
         <v>2</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P21" s="23">
         <v>2425000</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R21" t="s">
         <v>38</v>
@@ -8274,13 +8268,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B22" s="28">
         <v>2254250021</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -8295,34 +8289,34 @@
         <v>16</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J22" s="21">
         <v>2</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P22" s="23">
         <v>2425000</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R22" t="s">
         <v>38</v>
@@ -8330,13 +8324,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B23" s="28">
         <v>2254250022</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -8351,34 +8345,34 @@
         <v>16</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J23" s="21">
         <v>2</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P23" s="23">
         <v>2425000</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R23" t="s">
         <v>38</v>
@@ -8386,13 +8380,13 @@
     </row>
     <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24" s="28">
         <v>2254250023</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -8407,34 +8401,34 @@
         <v>16</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J24" s="21">
         <v>2</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P24" s="23">
         <v>2425000</v>
       </c>
       <c r="Q24" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R24" t="s">
         <v>38</v>
@@ -8442,13 +8436,13 @@
     </row>
     <row r="25" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" s="28">
         <v>2254250024</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -8463,34 +8457,34 @@
         <v>16</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J25" s="21">
         <v>2</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P25" s="23">
         <v>2425000</v>
       </c>
       <c r="Q25" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R25" t="s">
         <v>38</v>
@@ -8498,13 +8492,13 @@
     </row>
     <row r="26" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B26" s="28">
         <v>2254250025</v>
       </c>
       <c r="C26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -8538,13 +8532,13 @@
     </row>
     <row r="27" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="28">
         <v>2254250026</v>
       </c>
       <c r="C27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -8578,13 +8572,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" s="28">
         <v>2254250027</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -8602,31 +8596,31 @@
         <v>61</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J28" s="21">
         <v>2</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P28" s="23">
         <v>2425000</v>
       </c>
       <c r="Q28" s="23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R28" t="s">
         <v>38</v>
@@ -8634,13 +8628,13 @@
     </row>
     <row r="29" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="28">
         <v>2254250028</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -8655,34 +8649,34 @@
         <v>56</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J29" s="21">
         <v>2</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P29" s="23">
         <v>2425000</v>
       </c>
       <c r="Q29" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R29" t="s">
         <v>38</v>
@@ -8690,13 +8684,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B30" s="28">
         <v>2254250029</v>
       </c>
       <c r="C30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -8730,13 +8724,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B31" s="28">
         <v>2254250030</v>
       </c>
       <c r="C31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -8751,16 +8745,16 @@
         <v>16</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J31" s="21">
         <v>2</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -8772,13 +8766,13 @@
         <v>36</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P31" s="23">
         <v>2425000</v>
       </c>
       <c r="Q31" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R31" t="s">
         <v>38</v>
@@ -8786,13 +8780,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B32" s="28">
         <v>2254250031</v>
       </c>
       <c r="C32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -8807,28 +8801,28 @@
         <v>56</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J32" s="21">
         <v>3</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P32" s="23">
         <v>2425000</v>
@@ -8840,13 +8834,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B33" s="28">
         <v>2254250032</v>
       </c>
       <c r="C33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -8861,34 +8855,34 @@
         <v>56</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J33" s="21">
         <v>2</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P33" s="23">
         <v>2425000</v>
       </c>
       <c r="Q33" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R33" t="s">
         <v>38</v>
@@ -8896,13 +8890,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B34" s="28">
         <v>2254250033</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -8920,13 +8914,13 @@
         <v>131</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J34" s="21">
         <v>3</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -8938,13 +8932,13 @@
         <v>36</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P34" s="23">
         <v>2425000</v>
       </c>
       <c r="Q34" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R34" t="s">
         <v>38</v>
@@ -8952,13 +8946,13 @@
     </row>
     <row r="35" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B35" s="28">
         <v>2254250034</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -8976,31 +8970,31 @@
         <v>132</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J35" s="21">
         <v>3</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P35" s="23">
         <v>2425000</v>
       </c>
       <c r="Q35" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R35" t="s">
         <v>38</v>
@@ -9163,7 +9157,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>

--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="agribisnis" sheetId="1" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="533">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -1652,9 +1652,6 @@
     <t>0035682357</t>
   </si>
   <si>
-    <t>002458106</t>
-  </si>
-  <si>
     <t>0026663421</t>
   </si>
   <si>
@@ -2679,6 +2676,60 @@
   </si>
   <si>
     <t>MARIANHE ALUA.</t>
+  </si>
+  <si>
+    <t>ANASTASIA NAWYOP</t>
+  </si>
+  <si>
+    <t>TANAH MERAH</t>
+  </si>
+  <si>
+    <t>9116014209020002</t>
+  </si>
+  <si>
+    <t>PAULINA AYUKMANOP</t>
+  </si>
+  <si>
+    <t>0024541873</t>
+  </si>
+  <si>
+    <t>0002458106</t>
+  </si>
+  <si>
+    <t>YAMNA</t>
+  </si>
+  <si>
+    <t>2000-01-29</t>
+  </si>
+  <si>
+    <t>9110046901000001</t>
+  </si>
+  <si>
+    <t>SUNUM</t>
+  </si>
+  <si>
+    <t>ALNA RIANI B. AMAMEHI</t>
+  </si>
+  <si>
+    <t>0006587333</t>
+  </si>
+  <si>
+    <t>9112081406030001</t>
+  </si>
+  <si>
+    <t>OKBETEL</t>
+  </si>
+  <si>
+    <t>2003-06-10</t>
+  </si>
+  <si>
+    <t>YULITA UROPMABIN</t>
+  </si>
+  <si>
+    <t>0048836658</t>
+  </si>
+  <si>
+    <t>ROSITA MONIM</t>
   </si>
 </sst>
 </file>
@@ -2688,7 +2739,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2759,8 +2810,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2781,6 +2839,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2890,12 +2953,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2970,131 +3034,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3250,15 +3207,133 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="medium">
           <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -3289,35 +3364,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R54" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
-  <autoFilter ref="A1:R54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R55" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:R55"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="23"/>
+    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="8"/>
     <tableColumn id="2" name="NIM"/>
     <tableColumn id="3" name="prodi (uuid)"/>
-    <tableColumn id="4" name="tanggal daftar" dataDxfId="22"/>
+    <tableColumn id="4" name="tanggal daftar" dataDxfId="7"/>
     <tableColumn id="5" name="periode"/>
     <tableColumn id="6" name="Jenis_masuk"/>
     <tableColumn id="7" name="jk"/>
-    <tableColumn id="8" name="Tempat Lahir" dataDxfId="21"/>
-    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="20"/>
+    <tableColumn id="8" name="Tempat Lahir" dataDxfId="6"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="5"/>
     <tableColumn id="10" name="Agama"/>
-    <tableColumn id="11" name="NIK" dataDxfId="19"/>
+    <tableColumn id="11" name="NIK" dataDxfId="4"/>
     <tableColumn id="12" name="negara"/>
     <tableColumn id="13" name="Kelurahan"/>
-    <tableColumn id="14" name="ID_wilayah" dataDxfId="18"/>
-    <tableColumn id="15" name="ibu" dataDxfId="17"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="3"/>
+    <tableColumn id="15" name="ibu" dataDxfId="2"/>
     <tableColumn id="16" name="Biaya Masuk"/>
-    <tableColumn id="17" name="nisn" dataDxfId="16"/>
-    <tableColumn id="18" name="id_jalur_daftar" dataDxfId="15"/>
+    <tableColumn id="17" name="nisn" dataDxfId="1"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:R3" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" dataCellStyle="Normal">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:R4" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" dataCellStyle="Normal">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="nama_mahasiswa" dataCellStyle="Normal"/>
     <tableColumn id="2" name="NIM" dataCellStyle="Normal"/>
@@ -3343,10 +3418,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A1:R35" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" dataCellStyle="Normal">
-  <autoFilter ref="A1:R35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A1:R34" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" dataCellStyle="Normal">
+  <autoFilter ref="A1:R34"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="8"/>
+    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="20"/>
     <tableColumn id="2" name="NIM" dataCellStyle="Normal"/>
     <tableColumn id="3" name="prodi (uuid)" dataCellStyle="Normal"/>
     <tableColumn id="4" name="tanggal daftar" dataCellStyle="Normal"/>
@@ -3354,15 +3429,15 @@
     <tableColumn id="6" name="Jenis_masuk" dataCellStyle="Normal"/>
     <tableColumn id="7" name="jk" dataCellStyle="Normal"/>
     <tableColumn id="8" name="Tempat Lahir" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="19" dataCellStyle="Normal"/>
     <tableColumn id="10" name="Agama" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="NIK" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="NIK" dataDxfId="18" dataCellStyle="Normal"/>
     <tableColumn id="12" name="negara" dataCellStyle="Normal"/>
     <tableColumn id="13" name="Kelurahan" dataCellStyle="Normal"/>
-    <tableColumn id="14" name="ID_wilayah" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="17" dataCellStyle="Normal"/>
     <tableColumn id="15" name="ibu" dataCellStyle="Normal"/>
-    <tableColumn id="16" name="Biaya Masuk" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="17" name="nisn" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="16" name="Biaya Masuk" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="nisn" dataDxfId="15" dataCellStyle="Normal"/>
     <tableColumn id="18" name="id_jalur_daftar" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3370,7 +3445,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table225" displayName="Table225" ref="A1:R3" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table225" displayName="Table225" ref="A1:R3" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" dataCellStyle="Normal">
   <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="nama_mahasiswa" dataCellStyle="Normal"/>
@@ -3662,10 +3737,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:R35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,65 +4710,65 @@
         <v>2425000</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="9">
         <v>2254201019</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>20221</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="9">
         <v>2</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q18" t="s">
-        <v>173</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="Q18" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4747,65 +4822,65 @@
         <v>2425000</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R19" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="9">
         <v>2254201021</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <v>20221</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="9">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="9">
         <v>2</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q20" t="s">
-        <v>175</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="Q20" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="R20" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4859,7 +4934,7 @@
         <v>2425000</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R21" s="11" t="s">
         <v>38</v>
@@ -4915,7 +4990,7 @@
         <v>2425000</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>38</v>
@@ -4971,7 +5046,7 @@
         <v>2425000</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>38</v>
@@ -4981,55 +5056,55 @@
       <c r="A24" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="31">
         <v>2254201025</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="31">
         <v>20221</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="31">
         <v>1</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="31">
         <v>2</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="31">
         <v>2425000</v>
       </c>
-      <c r="Q24" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="R24" s="11" t="s">
+      <c r="Q24" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="R24" s="32" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5083,7 +5158,7 @@
         <v>2425000</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>38</v>
@@ -5091,7 +5166,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="9">
         <v>2254201027</v>
@@ -5112,16 +5187,16 @@
         <v>16</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J26" s="9">
         <v>2</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>17</v>
@@ -5133,13 +5208,13 @@
         <v>36</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P26" s="9">
         <v>2425000</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>38</v>
@@ -5147,7 +5222,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="9">
         <v>2254201028</v>
@@ -5168,16 +5243,16 @@
         <v>16</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J27" s="9">
         <v>2</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>17</v>
@@ -5189,13 +5264,13 @@
         <v>36</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P27" s="9">
         <v>2425000</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>38</v>
@@ -5203,7 +5278,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="9">
         <v>2254201029</v>
@@ -5224,34 +5299,34 @@
         <v>56</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J28" s="9">
         <v>3</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P28" s="9">
         <v>2425000</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>38</v>
@@ -5259,7 +5334,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="9">
         <v>2254201030</v>
@@ -5283,13 +5358,13 @@
         <v>61</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J29" s="9">
         <v>2</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>17</v>
@@ -5301,13 +5376,13 @@
         <v>36</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P29" s="9">
         <v>2425000</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>38</v>
@@ -5315,7 +5390,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="9">
         <v>2254201031</v>
@@ -5336,34 +5411,34 @@
         <v>16</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J30" s="9">
         <v>2</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P30" s="9">
         <v>2425000</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R30" s="9" t="s">
         <v>38</v>
@@ -5371,7 +5446,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="9">
         <v>2254201032</v>
@@ -5392,34 +5467,34 @@
         <v>56</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J31" s="9">
         <v>2</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P31" s="9">
         <v>2425000</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>38</v>
@@ -5427,7 +5502,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="9">
         <v>2254201033</v>
@@ -5448,34 +5523,34 @@
         <v>16</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J32" s="9">
         <v>2</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P32" s="9">
         <v>2425000</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R32" s="9" t="s">
         <v>38</v>
@@ -5483,7 +5558,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="9">
         <v>2254201034</v>
@@ -5504,16 +5579,16 @@
         <v>56</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J33" s="9">
         <v>3</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>17</v>
@@ -5525,13 +5600,13 @@
         <v>36</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P33" s="9">
         <v>2425000</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>38</v>
@@ -5539,7 +5614,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" s="9">
         <v>2254201035</v>
@@ -5560,16 +5635,16 @@
         <v>56</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J34" s="9">
         <v>2</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>17</v>
@@ -5581,21 +5656,77 @@
         <v>36</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P34" s="9">
         <v>2425000</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R34" s="9" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2254201036</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="I35" s="29">
+        <v>37258</v>
+      </c>
+      <c r="J35" s="9">
+        <v>2</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="P35" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="9">
         <v>2254201037</v>
@@ -5616,16 +5747,16 @@
         <v>16</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J36" s="9">
         <v>2</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>17</v>
@@ -5637,13 +5768,13 @@
         <v>36</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P36" s="9">
         <v>2425000</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R36" s="11" t="s">
         <v>38</v>
@@ -5651,7 +5782,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B37" s="9">
         <v>2254201038</v>
@@ -5672,16 +5803,16 @@
         <v>16</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J37" s="9">
         <v>2</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>17</v>
@@ -5693,13 +5824,13 @@
         <v>36</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P37" s="9">
         <v>2425000</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>38</v>
@@ -5707,7 +5838,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B38" s="9">
         <v>2254201039</v>
@@ -5728,16 +5859,16 @@
         <v>16</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J38" s="9">
         <v>2</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>17</v>
@@ -5749,13 +5880,13 @@
         <v>36</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P38" s="9">
         <v>2425000</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R38" s="11" t="s">
         <v>38</v>
@@ -5763,7 +5894,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B39" s="9">
         <v>2254201040</v>
@@ -5784,16 +5915,16 @@
         <v>56</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J39" s="9">
         <v>2</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>17</v>
@@ -5805,13 +5936,13 @@
         <v>36</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P39" s="9">
         <v>2425000</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R39" s="11" t="s">
         <v>38</v>
@@ -5819,7 +5950,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B40" s="9">
         <v>2254201041</v>
@@ -5840,16 +5971,16 @@
         <v>56</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J40" s="9">
         <v>2</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>17</v>
@@ -5861,13 +5992,13 @@
         <v>36</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P40" s="9">
         <v>2425000</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R40" s="11" t="s">
         <v>38</v>
@@ -5875,7 +6006,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B41" s="9">
         <v>2254201042</v>
@@ -5896,16 +6027,16 @@
         <v>56</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J41" s="9">
         <v>3</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>17</v>
@@ -5917,13 +6048,13 @@
         <v>36</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P41" s="9">
         <v>2425000</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R41" s="11" t="s">
         <v>38</v>
@@ -5931,7 +6062,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B42" s="9">
         <v>2254201044</v>
@@ -5952,82 +6083,98 @@
         <v>16</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J42" s="9">
         <v>2</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P42" s="9">
         <v>2425000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B43" s="19">
+      <c r="A43" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="9">
         <v>2254201045</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="9">
         <v>20221</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="19" t="s">
+      <c r="G43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="J43" s="9">
+        <v>2</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="L43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19" t="s">
+      <c r="M43" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="N43" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O43" s="20"/>
-      <c r="P43" s="19">
+      <c r="O43" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="P43" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20" t="s">
+      <c r="Q43" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="R43" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B44" s="9">
         <v>2254201046</v>
@@ -6051,13 +6198,13 @@
         <v>62</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J44" s="9">
         <v>3</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>17</v>
@@ -6069,13 +6216,13 @@
         <v>36</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P44" s="9">
         <v>2425000</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R44" s="11" t="s">
         <v>38</v>
@@ -6083,7 +6230,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" s="9">
         <v>2254201047</v>
@@ -6104,16 +6251,16 @@
         <v>56</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J45" s="9">
         <v>2</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>17</v>
@@ -6125,13 +6272,13 @@
         <v>36</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P45" s="9">
         <v>2425000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R45" s="11" t="s">
         <v>38</v>
@@ -6139,7 +6286,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B46" s="9">
         <v>2254201048</v>
@@ -6160,16 +6307,16 @@
         <v>16</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J46" s="9">
         <v>2</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>17</v>
@@ -6181,13 +6328,13 @@
         <v>36</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P46" s="9">
         <v>2425000</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R46" s="11" t="s">
         <v>38</v>
@@ -6195,7 +6342,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" s="9">
         <v>2254201050</v>
@@ -6216,16 +6363,16 @@
         <v>16</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J47" s="9">
         <v>2</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>17</v>
@@ -6235,13 +6382,13 @@
         <v>36</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P47" s="9">
         <v>2425000</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>38</v>
@@ -6249,7 +6396,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B48" s="9">
         <v>2254201051</v>
@@ -6270,16 +6417,16 @@
         <v>56</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J48" s="9">
         <v>2</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>17</v>
@@ -6291,13 +6438,13 @@
         <v>36</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P48" s="9">
         <v>2425000</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R48" s="11" t="s">
         <v>38</v>
@@ -6305,7 +6452,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B49" s="9">
         <v>2254201052</v>
@@ -6326,16 +6473,16 @@
         <v>16</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J49" s="9">
         <v>3</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>17</v>
@@ -6347,13 +6494,13 @@
         <v>36</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P49" s="9">
         <v>2425000</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R49" s="11" t="s">
         <v>38</v>
@@ -6361,7 +6508,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50" s="9">
         <v>2254201053</v>
@@ -6382,16 +6529,16 @@
         <v>16</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J50" s="9">
         <v>2</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>17</v>
@@ -6403,13 +6550,13 @@
         <v>36</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P50" s="9">
         <v>2425000</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>38</v>
@@ -6417,7 +6564,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51" s="9">
         <v>2254201054</v>
@@ -6441,81 +6588,95 @@
         <v>135</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J51" s="9">
         <v>2</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N51" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P51" s="9">
         <v>2425000</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R51" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="B52" s="19">
+      <c r="A52" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="9">
         <v>2254201055</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="9">
         <v>20221</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="9">
         <v>1</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="19" t="s">
+      <c r="G52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="J52" s="9">
+        <v>3</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="L52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M52" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="N52" s="19" t="s">
+      <c r="M52" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="20"/>
-      <c r="P52" s="19">
+      <c r="O52" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="P52" s="9">
         <v>2425000</v>
       </c>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20" t="s">
+      <c r="Q52" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="R52" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" s="9">
         <v>2254201056</v>
@@ -6536,32 +6697,34 @@
         <v>16</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J53" s="9">
         <v>2</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M53" s="9"/>
+      <c r="M53" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="N53" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P53" s="9">
         <v>2425000</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R53" s="11" t="s">
         <v>38</v>
@@ -6569,7 +6732,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" s="19">
         <v>2254201057</v>
@@ -6586,7 +6749,9 @@
       <c r="F54" s="19">
         <v>1</v>
       </c>
-      <c r="G54" s="19"/>
+      <c r="G54" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="H54" s="19"/>
       <c r="I54" s="20"/>
       <c r="J54" s="19"/>
@@ -6606,6 +6771,62 @@
       </c>
       <c r="Q54" s="20"/>
       <c r="R54" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B55" s="9">
+        <v>2254201058</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J55" s="9">
+        <v>2</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P55" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R55" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6626,8 +6847,8 @@
   </sheetPr>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="A3:R3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6709,7 +6930,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -6738,13 +6959,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="9">
         <v>2254211054</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>20</v>
@@ -6759,16 +6980,16 @@
         <v>56</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J3" s="9">
         <v>3</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>17</v>
@@ -6780,23 +7001,73 @@
         <v>36</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P3" s="9">
         <v>2425000</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D4"/>
-      <c r="I4"/>
-      <c r="K4"/>
-      <c r="Q4"/>
+      <c r="A4" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2254211040</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="21">
+        <v>20221</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="P4" s="21">
+        <v>2425000</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5"/>
@@ -7113,10 +7384,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7198,13 +7469,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="17">
         <v>2254250001</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -7219,34 +7490,34 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P2" s="7">
         <v>2425000</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R2" t="s">
         <v>38</v>
@@ -7254,13 +7525,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="18">
         <v>2254250002</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -7275,34 +7546,34 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P3" s="7">
         <v>2425000</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R3" t="s">
         <v>38</v>
@@ -7310,13 +7581,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" s="28">
         <v>2254250003</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -7334,13 +7605,13 @@
         <v>132</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J4" s="21">
         <v>2</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -7352,13 +7623,13 @@
         <v>36</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P4" s="23">
         <v>2425000</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R4" t="s">
         <v>38</v>
@@ -7366,13 +7637,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="28">
         <v>2254250004</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -7387,16 +7658,16 @@
         <v>16</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J5" s="21">
         <v>2</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -7408,13 +7679,13 @@
         <v>36</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P5" s="23">
         <v>2425000</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R5" t="s">
         <v>38</v>
@@ -7422,13 +7693,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="28">
         <v>2254250005</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -7443,34 +7714,34 @@
         <v>16</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J6" s="21">
         <v>2</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P6" s="23">
         <v>2425000</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R6" t="s">
         <v>38</v>
@@ -7478,13 +7749,13 @@
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="28">
         <v>2254250006</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -7518,13 +7789,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="28">
         <v>2254250007</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -7539,34 +7810,34 @@
         <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J8" s="21">
         <v>2</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P8" s="23">
         <v>2425000</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R8" t="s">
         <v>38</v>
@@ -7574,13 +7845,13 @@
     </row>
     <row r="9" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="28">
         <v>2254250008</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -7614,13 +7885,13 @@
     </row>
     <row r="10" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B10" s="28">
         <v>2254250009</v>
       </c>
       <c r="C10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -7635,34 +7906,34 @@
         <v>16</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J10" s="21">
         <v>2</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P10" s="23">
         <v>2425000</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R10" t="s">
         <v>38</v>
@@ -7670,13 +7941,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="28">
         <v>2254250010</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -7710,13 +7981,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B12" s="28">
         <v>2254250011</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -7731,16 +8002,16 @@
         <v>56</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J12" s="21">
         <v>3</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -7752,13 +8023,13 @@
         <v>36</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P12" s="23">
         <v>2425000</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R12" t="s">
         <v>38</v>
@@ -7766,13 +8037,13 @@
     </row>
     <row r="13" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="28">
         <v>2254250012</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -7790,13 +8061,13 @@
         <v>132</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J13" s="21">
         <v>3</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -7808,13 +8079,13 @@
         <v>36</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P13" s="23">
         <v>2425000</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R13" t="s">
         <v>38</v>
@@ -7822,13 +8093,13 @@
     </row>
     <row r="14" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B14" s="28">
         <v>2254250013</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -7843,34 +8114,34 @@
         <v>56</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J14" s="21">
         <v>3</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P14" s="23">
         <v>2425000</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R14" t="s">
         <v>38</v>
@@ -7878,13 +8149,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="28">
         <v>2254250014</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -7899,34 +8170,34 @@
         <v>16</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J15" s="21">
         <v>2</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P15" s="23">
         <v>2425000</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R15" t="s">
         <v>38</v>
@@ -7934,13 +8205,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B16" s="28">
         <v>2254250015</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -7955,16 +8226,16 @@
         <v>16</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J16" s="21">
         <v>2</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -7976,13 +8247,13 @@
         <v>36</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P16" s="23">
         <v>2425000</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R16" t="s">
         <v>38</v>
@@ -7990,13 +8261,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B17" s="28">
         <v>2254250016</v>
       </c>
       <c r="C17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -8014,13 +8285,13 @@
         <v>40</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J17" s="21">
         <v>2</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -8030,13 +8301,13 @@
         <v>36</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P17" s="23">
         <v>2425000</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R17" t="s">
         <v>38</v>
@@ -8044,13 +8315,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B18" s="28">
         <v>2254250017</v>
       </c>
       <c r="C18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -8065,34 +8336,34 @@
         <v>56</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J18" s="21">
         <v>2</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P18" s="23">
         <v>2425000</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R18" t="s">
         <v>38</v>
@@ -8100,13 +8371,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B19" s="28">
         <v>2254250018</v>
       </c>
       <c r="C19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -8124,13 +8395,13 @@
         <v>131</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J19" s="21">
         <v>2</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -8142,13 +8413,13 @@
         <v>36</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P19" s="23">
         <v>2425000</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R19" t="s">
         <v>38</v>
@@ -8156,13 +8427,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B20" s="28">
         <v>2254250019</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -8177,34 +8448,34 @@
         <v>16</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J20" s="21">
         <v>2</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P20" s="23">
         <v>2425000</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R20" t="s">
         <v>38</v>
@@ -8212,13 +8483,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B21" s="28">
         <v>2254250020</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -8233,34 +8504,34 @@
         <v>16</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J21" s="21">
         <v>2</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P21" s="23">
         <v>2425000</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R21" t="s">
         <v>38</v>
@@ -8268,13 +8539,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B22" s="28">
         <v>2254250021</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -8289,48 +8560,48 @@
         <v>16</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J22" s="21">
         <v>2</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P22" s="23">
         <v>2425000</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>357</v>
       </c>
       <c r="B23" s="28">
-        <v>2254250022</v>
+        <v>2254250023</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -8360,7 +8631,7 @@
         <v>17</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>36</v>
@@ -8383,10 +8654,10 @@
         <v>358</v>
       </c>
       <c r="B24" s="28">
-        <v>2254250023</v>
+        <v>2254250024</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -8404,7 +8675,7 @@
         <v>385</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="J24" s="21">
         <v>2</v>
@@ -8416,7 +8687,7 @@
         <v>17</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>36</v>
@@ -8439,10 +8710,10 @@
         <v>359</v>
       </c>
       <c r="B25" s="28">
-        <v>2254250024</v>
+        <v>2254250025</v>
       </c>
       <c r="C25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -8453,39 +8724,23 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="J25" s="21">
-        <v>2</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>437</v>
-      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="23"/>
       <c r="L25" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="21" t="s">
-        <v>456</v>
-      </c>
+      <c r="M25" s="21"/>
       <c r="N25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="21" t="s">
-        <v>478</v>
-      </c>
+      <c r="O25" s="21"/>
       <c r="P25" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q25" s="23" t="s">
-        <v>506</v>
-      </c>
+      <c r="Q25" s="23"/>
       <c r="R25" t="s">
         <v>38</v>
       </c>
@@ -8495,10 +8750,10 @@
         <v>360</v>
       </c>
       <c r="B26" s="28">
-        <v>2254250025</v>
+        <v>2254250026</v>
       </c>
       <c r="C26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -8530,15 +8785,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>361</v>
       </c>
       <c r="B27" s="28">
-        <v>2254250026</v>
+        <v>2254250027</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -8549,36 +8804,52 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23"/>
+      <c r="G27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="J27" s="21">
+        <v>2</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>437</v>
+      </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="21"/>
+      <c r="M27" s="21" t="s">
+        <v>452</v>
+      </c>
       <c r="N27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="21"/>
+      <c r="O27" s="21" t="s">
+        <v>478</v>
+      </c>
       <c r="P27" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q27" s="23"/>
+      <c r="Q27" s="23" t="s">
+        <v>506</v>
+      </c>
       <c r="R27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>362</v>
       </c>
       <c r="B28" s="28">
-        <v>2254250027</v>
+        <v>2254250028</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -8590,10 +8861,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>61</v>
+        <v>386</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>411</v>
@@ -8608,7 +8879,7 @@
         <v>17</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>36</v>
@@ -8626,15 +8897,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>363</v>
       </c>
       <c r="B29" s="28">
-        <v>2254250028</v>
+        <v>2254250029</v>
       </c>
       <c r="C29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -8645,52 +8916,36 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="J29" s="21">
-        <v>2</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>439</v>
-      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="23"/>
       <c r="L29" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="21" t="s">
-        <v>387</v>
-      </c>
+      <c r="M29" s="21"/>
       <c r="N29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="21" t="s">
-        <v>480</v>
-      </c>
+      <c r="O29" s="21"/>
       <c r="P29" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q29" s="23" t="s">
-        <v>508</v>
-      </c>
+      <c r="Q29" s="23"/>
       <c r="R29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="25" t="s">
         <v>364</v>
       </c>
       <c r="B30" s="28">
-        <v>2254250029</v>
+        <v>2254250030</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -8701,23 +8956,39 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="23"/>
+      <c r="G30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="J30" s="21">
+        <v>2</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>439</v>
+      </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="21"/>
+      <c r="M30" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="N30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="21"/>
+      <c r="O30" s="21" t="s">
+        <v>480</v>
+      </c>
       <c r="P30" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q30" s="23"/>
+      <c r="Q30" s="23" t="s">
+        <v>508</v>
+      </c>
       <c r="R30" t="s">
         <v>38</v>
       </c>
@@ -8727,10 +8998,10 @@
         <v>365</v>
       </c>
       <c r="B31" s="28">
-        <v>2254250030</v>
+        <v>2254250031</v>
       </c>
       <c r="C31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -8742,16 +9013,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>388</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="J31" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>440</v>
@@ -8760,7 +9031,7 @@
         <v>17</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>91</v>
+        <v>456</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>36</v>
@@ -8771,9 +9042,7 @@
       <c r="P31" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q31" s="23" t="s">
-        <v>509</v>
-      </c>
+      <c r="Q31" s="23"/>
       <c r="R31" t="s">
         <v>38</v>
       </c>
@@ -8783,10 +9052,10 @@
         <v>366</v>
       </c>
       <c r="B32" s="28">
-        <v>2254250031</v>
+        <v>2254250032</v>
       </c>
       <c r="C32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -8807,7 +9076,7 @@
         <v>413</v>
       </c>
       <c r="J32" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" s="23" t="s">
         <v>441</v>
@@ -8816,7 +9085,7 @@
         <v>17</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>36</v>
@@ -8827,7 +9096,9 @@
       <c r="P32" s="23">
         <v>2425000</v>
       </c>
-      <c r="Q32" s="23"/>
+      <c r="Q32" s="23" t="s">
+        <v>509</v>
+      </c>
       <c r="R32" t="s">
         <v>38</v>
       </c>
@@ -8837,10 +9108,10 @@
         <v>367</v>
       </c>
       <c r="B33" s="28">
-        <v>2254250032</v>
+        <v>2254250033</v>
       </c>
       <c r="C33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -8855,13 +9126,13 @@
         <v>56</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>390</v>
+        <v>131</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>414</v>
       </c>
       <c r="J33" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>442</v>
@@ -8870,7 +9141,7 @@
         <v>17</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>390</v>
+        <v>159</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>36</v>
@@ -8888,15 +9159,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>368</v>
       </c>
       <c r="B34" s="28">
-        <v>2254250033</v>
+        <v>2254250034</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -8908,10 +9179,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>415</v>
@@ -8926,7 +9197,7 @@
         <v>17</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>159</v>
+        <v>457</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>36</v>
@@ -8944,61 +9215,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="B35" s="28">
-        <v>2254250034</v>
-      </c>
-      <c r="C35" t="s">
-        <v>335</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>20221</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="J35" s="21">
-        <v>3</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="L35" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="P35" s="23">
-        <v>2425000</v>
-      </c>
-      <c r="Q35" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="R35" t="s">
-        <v>38</v>
-      </c>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D35"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D36"/>
@@ -9018,10 +9236,10 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -9053,9 +9271,6 @@
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9157,7 +9372,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>

--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="547">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -2730,6 +2730,48 @@
   </si>
   <si>
     <t>ROSITA MONIM</t>
+  </si>
+  <si>
+    <t>DATANYA SALAH</t>
+  </si>
+  <si>
+    <t>ANDERINA PRISKILA SAMON</t>
+  </si>
+  <si>
+    <t>AGNELLA ANNA MARI</t>
+  </si>
+  <si>
+    <t>MEIKARI</t>
+  </si>
+  <si>
+    <t>MERAUKE</t>
+  </si>
+  <si>
+    <t>1996-08-07</t>
+  </si>
+  <si>
+    <t>1979-09-14</t>
+  </si>
+  <si>
+    <t>9103054708960002</t>
+  </si>
+  <si>
+    <t>9171015409790003</t>
+  </si>
+  <si>
+    <t>BHAYANGKARA</t>
+  </si>
+  <si>
+    <t>MAMEI</t>
+  </si>
+  <si>
+    <t>ELIZABETH MERABANO</t>
+  </si>
+  <si>
+    <t>MARTHA KABUARE</t>
+  </si>
+  <si>
+    <t>9962525179</t>
   </si>
 </sst>
 </file>
@@ -2739,7 +2781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2815,6 +2857,17 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2959,7 +3012,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3043,6 +3096,13 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3364,8 +3424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R55" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:R55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R57" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:R57"/>
   <tableColumns count="18">
     <tableColumn id="1" name="nama_mahasiswa" dataDxfId="8"/>
     <tableColumn id="2" name="NIM"/>
@@ -3737,10 +3797,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,7 +3824,7 @@
     <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3819,8 +3879,9 @@
       <c r="R1" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -3875,8 +3936,9 @@
       <c r="R2" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="34"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -3931,8 +3993,9 @@
       <c r="R3" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="34"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
@@ -3987,8 +4050,9 @@
       <c r="R4" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
@@ -4043,8 +4107,9 @@
       <c r="R5" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="34"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
@@ -4099,8 +4164,9 @@
       <c r="R6" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="34"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
@@ -4155,8 +4221,9 @@
       <c r="R7" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="34"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
@@ -4211,8 +4278,9 @@
       <c r="R8" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -4267,8 +4335,9 @@
       <c r="R9" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -4323,8 +4392,9 @@
       <c r="R10" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>51</v>
       </c>
@@ -4379,8 +4449,9 @@
       <c r="R11" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
@@ -4435,8 +4506,9 @@
       <c r="R12" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
@@ -4491,8 +4563,9 @@
       <c r="R13" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>54</v>
       </c>
@@ -4547,8 +4620,9 @@
       <c r="R14" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="34"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>55</v>
       </c>
@@ -4603,8 +4677,9 @@
       <c r="R15" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="34"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>118</v>
       </c>
@@ -4659,8 +4734,9 @@
       <c r="R16" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="34"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>119</v>
       </c>
@@ -4715,8 +4791,9 @@
       <c r="R17" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="34"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>120</v>
       </c>
@@ -4771,8 +4848,9 @@
       <c r="R18" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="34"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>121</v>
       </c>
@@ -4827,8 +4905,9 @@
       <c r="R19" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="34"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>122</v>
       </c>
@@ -4883,8 +4962,9 @@
       <c r="R20" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="34"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>123</v>
       </c>
@@ -4939,8 +5019,9 @@
       <c r="R21" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="34"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>124</v>
       </c>
@@ -4995,8 +5076,9 @@
       <c r="R22" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="34"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>125</v>
       </c>
@@ -5051,8 +5133,9 @@
       <c r="R23" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="34"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>126</v>
       </c>
@@ -5107,8 +5190,11 @@
       <c r="R24" s="32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="34" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>127</v>
       </c>
@@ -5163,8 +5249,9 @@
       <c r="R25" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="34"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>181</v>
       </c>
@@ -5219,8 +5306,9 @@
       <c r="R26" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="34"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>182</v>
       </c>
@@ -5275,8 +5363,9 @@
       <c r="R27" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="34"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>183</v>
       </c>
@@ -5331,8 +5420,9 @@
       <c r="R28" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="34"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>184</v>
       </c>
@@ -5387,8 +5477,9 @@
       <c r="R29" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="34"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>185</v>
       </c>
@@ -5443,8 +5534,9 @@
       <c r="R30" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="34"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>186</v>
       </c>
@@ -5499,8 +5591,9 @@
       <c r="R31" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="34"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>187</v>
       </c>
@@ -5555,8 +5648,9 @@
       <c r="R32" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="34"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>188</v>
       </c>
@@ -5611,8 +5705,9 @@
       <c r="R33" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="34"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>189</v>
       </c>
@@ -5667,8 +5762,9 @@
       <c r="R34" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="34"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>515</v>
       </c>
@@ -5723,8 +5819,9 @@
       <c r="R35" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="34"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>242</v>
       </c>
@@ -5779,8 +5876,9 @@
       <c r="R36" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="34"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>243</v>
       </c>
@@ -5835,8 +5933,9 @@
       <c r="R37" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="34"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>244</v>
       </c>
@@ -5891,8 +5990,9 @@
       <c r="R38" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="34"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>245</v>
       </c>
@@ -5947,8 +6047,9 @@
       <c r="R39" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="34"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>246</v>
       </c>
@@ -6003,8 +6104,9 @@
       <c r="R40" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="34"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>247</v>
       </c>
@@ -6059,8 +6161,9 @@
       <c r="R41" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="34"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>277</v>
       </c>
@@ -6115,8 +6218,9 @@
       <c r="R42" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="34"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>278</v>
       </c>
@@ -6171,8 +6275,9 @@
       <c r="R43" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="34"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>279</v>
       </c>
@@ -6227,8 +6332,9 @@
       <c r="R44" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="34"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>280</v>
       </c>
@@ -6283,8 +6389,9 @@
       <c r="R45" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="34"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>281</v>
       </c>
@@ -6339,8 +6446,9 @@
       <c r="R46" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="34"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>301</v>
       </c>
@@ -6393,8 +6501,9 @@
       <c r="R47" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="34"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>302</v>
       </c>
@@ -6449,8 +6558,9 @@
       <c r="R48" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="34"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>303</v>
       </c>
@@ -6505,8 +6615,9 @@
       <c r="R49" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="34"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>304</v>
       </c>
@@ -6561,8 +6672,9 @@
       <c r="R50" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="34"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>305</v>
       </c>
@@ -6617,8 +6729,9 @@
       <c r="R51" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="34"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>306</v>
       </c>
@@ -6673,8 +6786,9 @@
       <c r="R52" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="34"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>307</v>
       </c>
@@ -6729,8 +6843,9 @@
       <c r="R53" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="34"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>308</v>
       </c>
@@ -6773,8 +6888,9 @@
       <c r="R54" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="34"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>532</v>
       </c>
@@ -6827,6 +6943,119 @@
         <v>178</v>
       </c>
       <c r="R55" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S55" s="34"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B56" s="9">
+        <v>2254201059</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="J56" s="9">
+        <v>2</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="P56" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B57" s="9">
+        <v>2254201061</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="9">
+        <v>20221</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="J57" s="9">
+        <v>2</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="P57" s="9">
+        <v>2425000</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="R57" s="11" t="s">
         <v>38</v>
       </c>
     </row>

--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\neo-integrator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\neo-integrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F607034A-6AC6-4549-995B-283A308CC0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="agribisnis" sheetId="1" r:id="rId1"/>
@@ -28,13 +27,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ammar</author>
     <author>Alan Budi Kusuma</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="K1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,13 +303,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ammar</author>
     <author>Alan Budi Kusuma</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="K1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,13 +579,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ammar</author>
     <author>Alan Budi Kusuma</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -687,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -746,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="K1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -856,13 +855,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ammar</author>
     <author>Alan Budi Kusuma</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -887,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -937,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -963,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="K1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1038">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -4213,16 +4212,49 @@
   </si>
   <si>
     <t>9112037112020001</t>
+  </si>
+  <si>
+    <t>ALBERT NATALIUS ONDOAFO</t>
+  </si>
+  <si>
+    <t>CHAROL YULIKA MAKABORY</t>
+  </si>
+  <si>
+    <t>MIRRYAM MARGRITH PUI</t>
+  </si>
+  <si>
+    <t>METRAYADI</t>
+  </si>
+  <si>
+    <t>PADANG</t>
+  </si>
+  <si>
+    <t>1987-03-29</t>
+  </si>
+  <si>
+    <t>1983-06-22</t>
+  </si>
+  <si>
+    <t>9171046903870001</t>
+  </si>
+  <si>
+    <t>9171032206830013</t>
+  </si>
+  <si>
+    <t>DOLFINA HAAY</t>
+  </si>
+  <si>
+    <t>MARNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4298,6 +4330,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4322,7 +4367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -4478,6 +4523,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4485,7 +4558,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4640,6 +4713,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -4661,6 +4746,33 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -4674,6 +4786,33 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4707,60 +4846,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4983,108 +5068,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:R57" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
-  <autoFilter ref="A1:R57" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R57" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+  <autoFilter ref="A1:R57"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nama_mahasiswa" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NIM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="prodi (uuid)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tanggal daftar" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="periode"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Jenis_masuk"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jk"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tempat Lahir" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tanggal Lahir" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Agama"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NIK" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="negara"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Kelurahan"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ID_wilayah" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="ibu" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Biaya Masuk"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="nisn" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="id_jalur_daftar" dataDxfId="23"/>
+    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="31"/>
+    <tableColumn id="2" name="NIM"/>
+    <tableColumn id="3" name="prodi (uuid)"/>
+    <tableColumn id="4" name="tanggal daftar" dataDxfId="30"/>
+    <tableColumn id="5" name="periode"/>
+    <tableColumn id="6" name="Jenis_masuk"/>
+    <tableColumn id="7" name="jk"/>
+    <tableColumn id="8" name="Tempat Lahir" dataDxfId="29"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="28"/>
+    <tableColumn id="10" name="Agama"/>
+    <tableColumn id="11" name="NIK" dataDxfId="27"/>
+    <tableColumn id="12" name="negara"/>
+    <tableColumn id="13" name="Kelurahan"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="26"/>
+    <tableColumn id="15" name="ibu" dataDxfId="25"/>
+    <tableColumn id="16" name="Biaya Masuk"/>
+    <tableColumn id="17" name="nisn" dataDxfId="24"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:R45" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" dataCellStyle="Good">
-  <autoFilter ref="A1:R45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:R45" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" dataCellStyle="Good">
+  <autoFilter ref="A1:R45"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="nama_mahasiswa" dataDxfId="13" dataCellStyle="Good"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NIM" dataCellStyle="Good"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="prodi (uuid)" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="tanggal daftar" dataCellStyle="Good"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="periode" dataCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Jenis_masuk" dataCellStyle="Good"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="jk" dataCellStyle="Good"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tempat Lahir" dataCellStyle="Good"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tanggal Lahir" dataDxfId="12" dataCellStyle="Good"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Agama" dataCellStyle="Good"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="NIK" dataDxfId="11" dataCellStyle="Good"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="negara" dataCellStyle="Good"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Kelurahan" dataCellStyle="Good"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ID_wilayah" dataCellStyle="Good"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ibu" dataCellStyle="Good"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Biaya Masuk" dataCellStyle="Good"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="nisn" dataDxfId="10" dataCellStyle="Good"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="id_jalur_daftar" dataDxfId="9" dataCellStyle="Good"/>
+    <tableColumn id="1" name="nama_mahasiswa" dataDxfId="19" dataCellStyle="Good"/>
+    <tableColumn id="2" name="NIM" dataCellStyle="Good"/>
+    <tableColumn id="3" name="prodi (uuid)" dataCellStyle="Good"/>
+    <tableColumn id="4" name="tanggal daftar" dataCellStyle="Good"/>
+    <tableColumn id="5" name="periode" dataCellStyle="Good"/>
+    <tableColumn id="6" name="Jenis_masuk" dataCellStyle="Good"/>
+    <tableColumn id="7" name="jk" dataCellStyle="Good"/>
+    <tableColumn id="8" name="Tempat Lahir" dataCellStyle="Good"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="18" dataCellStyle="Good"/>
+    <tableColumn id="10" name="Agama" dataCellStyle="Good"/>
+    <tableColumn id="11" name="NIK" dataDxfId="17" dataCellStyle="Good"/>
+    <tableColumn id="12" name="negara" dataCellStyle="Good"/>
+    <tableColumn id="13" name="Kelurahan" dataCellStyle="Good"/>
+    <tableColumn id="14" name="ID_wilayah" dataCellStyle="Good"/>
+    <tableColumn id="15" name="ibu" dataCellStyle="Good"/>
+    <tableColumn id="16" name="Biaya Masuk" dataCellStyle="Good"/>
+    <tableColumn id="17" name="nisn" dataDxfId="16" dataCellStyle="Good"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataDxfId="15" dataCellStyle="Good"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A1:R31" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" dataCellStyle="Normal">
-  <autoFilter ref="A1:R31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table224" displayName="Table224" ref="A1:R31" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" dataCellStyle="Normal">
+  <autoFilter ref="A1:R31"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="nama_mahasiswa"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="NIM"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="prodi (uuid)" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="tanggal daftar" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="periode" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Jenis_masuk" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="jk"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Tempat Lahir"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tanggal Lahir" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Agama"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="NIK" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="negara" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Kelurahan"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="ID_wilayah" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="ibu"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Biaya Masuk" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="nisn" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="id_jalur_daftar" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="nama_mahasiswa"/>
+    <tableColumn id="2" name="NIM"/>
+    <tableColumn id="3" name="prodi (uuid)" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="tanggal daftar" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="periode" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Jenis_masuk" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="jk"/>
+    <tableColumn id="8" name="Tempat Lahir"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Agama"/>
+    <tableColumn id="11" name="NIK" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="negara" dataCellStyle="Normal"/>
+    <tableColumn id="13" name="Kelurahan"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="15" name="ibu"/>
+    <tableColumn id="16" name="Biaya Masuk" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="17" name="nisn" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table225" displayName="Table225" ref="A1:R39" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" dataCellStyle="Good">
-  <autoFilter ref="A1:R39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table225" displayName="Table225" ref="A1:R43" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" dataCellStyle="Good">
+  <autoFilter ref="A1:R43"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="nama_mahasiswa" dataCellStyle="Good"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="NIM" dataCellStyle="Good"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="prodi (uuid)" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="tanggal daftar" dataCellStyle="Good"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="periode" dataCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Jenis_masuk" dataCellStyle="Good"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="jk" dataCellStyle="Good"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Tempat Lahir" dataCellStyle="Good"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Tanggal Lahir" dataDxfId="3" dataCellStyle="Good"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Agama" dataCellStyle="Good"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="NIK" dataDxfId="2" dataCellStyle="Good"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="negara" dataCellStyle="Good"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Kelurahan" dataCellStyle="Good"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="ID_wilayah" dataDxfId="1" dataCellStyle="Good"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="ibu" dataCellStyle="Good"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Biaya Masuk" dataCellStyle="Good"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="nisn" dataDxfId="0" dataCellStyle="Good"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="id_jalur_daftar" dataCellStyle="Good"/>
+    <tableColumn id="1" name="nama_mahasiswa" dataCellStyle="Good"/>
+    <tableColumn id="2" name="NIM" dataCellStyle="Good"/>
+    <tableColumn id="3" name="prodi (uuid)" dataCellStyle="Good"/>
+    <tableColumn id="4" name="tanggal daftar" dataCellStyle="Good"/>
+    <tableColumn id="5" name="periode" dataCellStyle="Good"/>
+    <tableColumn id="6" name="Jenis_masuk" dataCellStyle="Good"/>
+    <tableColumn id="7" name="jk" dataCellStyle="Good"/>
+    <tableColumn id="8" name="Tempat Lahir" dataCellStyle="Good"/>
+    <tableColumn id="9" name="Tanggal Lahir" dataDxfId="3" dataCellStyle="Good"/>
+    <tableColumn id="10" name="Agama" dataCellStyle="Good"/>
+    <tableColumn id="11" name="NIK" dataDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="12" name="negara" dataCellStyle="Good"/>
+    <tableColumn id="13" name="Kelurahan" dataCellStyle="Good"/>
+    <tableColumn id="14" name="ID_wilayah" dataDxfId="1" dataCellStyle="Good"/>
+    <tableColumn id="15" name="ibu" dataCellStyle="Good"/>
+    <tableColumn id="16" name="Biaya Masuk" dataCellStyle="Good"/>
+    <tableColumn id="17" name="nisn" dataDxfId="0" dataCellStyle="Good"/>
+    <tableColumn id="18" name="id_jalur_daftar" dataCellStyle="Good"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5352,7 +5437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8629,7 +8714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -11191,14 +11276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12994,14 +13079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R43" sqref="A42:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15153,7 +15238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>843</v>
       </c>
@@ -15209,17 +15294,229 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D43"/>
+    <row r="40" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="64" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B40" s="62">
+        <v>2254231040</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="27">
+        <v>20221</v>
+      </c>
+      <c r="F40" s="27">
+        <v>1</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J40" s="27">
+        <v>2</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" s="65" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P40" s="27">
+        <v>3200000</v>
+      </c>
+      <c r="Q40" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="R40" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="64" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B41" s="63">
+        <v>2254231041</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="27">
+        <v>20221</v>
+      </c>
+      <c r="F41" s="27">
+        <v>1</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J41" s="27">
+        <v>1</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" s="65" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P41" s="27">
+        <v>3200000</v>
+      </c>
+      <c r="Q41" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="R41" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="64" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B42" s="62">
+        <v>2254231043</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="27">
+        <v>20221</v>
+      </c>
+      <c r="F42" s="27">
+        <v>1</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J42" s="27">
+        <v>2</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" s="65" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P42" s="27">
+        <v>3200000</v>
+      </c>
+      <c r="Q42" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="R42" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="64" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B43" s="63">
+        <v>2254231044</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="27">
+        <v>20221</v>
+      </c>
+      <c r="F43" s="27">
+        <v>1</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="65" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J43" s="27">
+        <v>1</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" s="65" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P43" s="27">
+        <v>3200000</v>
+      </c>
+      <c r="Q43" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="R43" s="27">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D44"/>

--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\neo-integrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F607034A-6AC6-4549-995B-283A308CC0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79D8952-E876-4068-9207-FD964ED110A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="agribisnis" sheetId="1" r:id="rId1"/>
     <sheet name="agroteknologi" sheetId="3" r:id="rId2"/>
-    <sheet name="akuakultur" sheetId="4" r:id="rId3"/>
-    <sheet name="peternakan" sheetId="5" r:id="rId4"/>
+    <sheet name="agroteknologi (TRF)" sheetId="6" r:id="rId3"/>
+    <sheet name="akuakultur" sheetId="4" r:id="rId4"/>
+    <sheet name="akuakultur (TRF)" sheetId="7" r:id="rId5"/>
+    <sheet name="peternakan" sheetId="5" r:id="rId6"/>
+    <sheet name="peternakan (TRF)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -586,6 +589,282 @@
     <author>Alan Budi Kusuma</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{28689ABF-5BE2-43CC-948E-FDA071C1FE26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Awal kolom data mahasiwa.
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3D673FBC-7EB8-4902-8DE7-7A1E9A4695C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+uuid_Prodi, bisa diihat di data Prodi
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B58A6BA9-EEF5-49D2-8ADE-DDE2BE0F78EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tanggal Pertama Masuk,
+Format yyyy-mm-dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{14993C6D-63B7-4F6F-A2A8-20CE85C193D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Periode / ID Semester
+ex : 20181 atau 20171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5003A3A7-2C17-44B8-91AD-945D1FEF9A2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Peserta didik baru
+2 : Pindahan 
+3 : Naik kelas 
+4 : Akselerasi
+5 : Mengulang
+6 : Lanjutan semester
+8 : Pindahan Alih Bentuk
+11 : Alih Jenjang
+12 : Lintas Jalur
+13 : Rekognisi Pembelajaran Lampau (RPL)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{706F0C05-F480-43CC-A270-AE2CBBD78081}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Jenis Kelami
+L : Laki-Laki
+P : Perempuan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{C5D3C26A-74BB-480A-AA32-C442A54BF816}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Islam
+2 : Kristen
+3 : Katholik
+4 : Hindu
+5 : Budha
+6 : Konghucu
+99 : Lainnya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{63B7BC0C-EDB8-4E2C-85AF-9B4F3EB48943}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neo_integrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wajib 16 Karakter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{733919A9-9F51-4208-B616-3233DD1A54B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID : untuk Indonesia
+Method : GetNegara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{F9E4D073-38D6-437E-9674-EC23745BC713}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID Wilayah. Web Service:
+GetWilayah
+000000 : INDONESIA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ammar</author>
+    <author>Alan Budi Kusuma</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
@@ -855,7 +1134,283 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ammar</author>
+    <author>Alan Budi Kusuma</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0D700E8C-3829-46B3-A528-B10C4D82EDB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Awal kolom data mahasiwa.
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D3F453C2-DD48-4B85-86C6-E4F64478C3E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+uuid_Prodi, bisa diihat di data Prodi
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E40A358D-C9EF-43F2-BFC2-97ACC0E6FBBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tanggal Pertama Masuk,
+Format yyyy-mm-dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3C48EF78-3E73-4920-8B95-4F38FCC6E070}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Periode / ID Semester
+ex : 20181 atau 20171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{98BED0D4-5206-4E1B-B153-9685E9C852F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Peserta didik baru
+2 : Pindahan 
+3 : Naik kelas 
+4 : Akselerasi
+5 : Mengulang
+6 : Lanjutan semester
+8 : Pindahan Alih Bentuk
+11 : Alih Jenjang
+12 : Lintas Jalur
+13 : Rekognisi Pembelajaran Lampau (RPL)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{483EB7CA-F5FD-4A6D-BDF4-A751C8002B10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Jenis Kelami
+L : Laki-Laki
+P : Perempuan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E9FCF96C-F313-4FE4-B000-FA57FCE8EB38}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Islam
+2 : Kristen
+3 : Katholik
+4 : Hindu
+5 : Budha
+6 : Konghucu
+99 : Lainnya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{9337A557-48E8-48E5-A661-47B4829D6120}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neo_integrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wajib 16 Karakter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{21AFCF36-3897-4E6E-B0A8-0FE2E2640FEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID : untuk Indonesia
+Method : GetNegara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{F576BF9D-3A5F-46C9-9B76-DF4168ECC259}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID Wilayah. Web Service:
+GetWilayah
+000000 : INDONESIA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ammar</author>
@@ -1131,8 +1686,284 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ammar</author>
+    <author>Alan Budi Kusuma</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9592B0B4-3BB8-479D-93F9-39DCEEAC8543}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Awal kolom data mahasiwa.
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A8FB2172-20A7-426D-A5A1-DA78ECA46152}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+uuid_Prodi, bisa diihat di data Prodi
+Nb : Not Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{64F765B7-C2CA-4050-9032-42E25B28BAD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tanggal Pertama Masuk,
+Format yyyy-mm-dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2BB386C4-726A-41C8-A9C3-8E3AB981F68C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Periode / ID Semester
+ex : 20181 atau 20171
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{51B4CC16-0840-4CCF-B74E-0887791CF24E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Peserta didik baru
+2 : Pindahan 
+3 : Naik kelas 
+4 : Akselerasi
+5 : Mengulang
+6 : Lanjutan semester
+8 : Pindahan Alih Bentuk
+11 : Alih Jenjang
+12 : Lintas Jalur
+13 : Rekognisi Pembelajaran Lampau (RPL)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{144E3EAD-4683-402C-BFDE-6093649F1F6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Jenis Kelami
+L : Laki-Laki
+P : Perempuan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{051B871E-C91C-4576-8087-9D60AA82D48B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : Islam
+2 : Kristen
+3 : Katholik
+4 : Hindu
+5 : Budha
+6 : Konghucu
+99 : Lainnya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{418E6BEB-8369-4FBB-BDE7-47AB6B80FBE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neo_integrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wajib 16 Karakter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{8634BDC7-C70E-418A-8933-8C327F0CECDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID : untuk Indonesia
+Method : GetNegara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{49435B7E-51AB-4F97-8B82-9ECD567D6E41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ammar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ID Wilayah. Web Service:
+GetWilayah
+000000 : INDONESIA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="1081">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -4213,6 +5044,168 @@
   </si>
   <si>
     <t>9112037112020001</t>
+  </si>
+  <si>
+    <t>YOHANIS CHRISTIAN SAWEN</t>
+  </si>
+  <si>
+    <t>1994-01-05</t>
+  </si>
+  <si>
+    <t>9103010501940006</t>
+  </si>
+  <si>
+    <t>NAOMI SUEBU</t>
+  </si>
+  <si>
+    <t>KOGAS WEIPSA</t>
+  </si>
+  <si>
+    <t>PULDAMA</t>
+  </si>
+  <si>
+    <t>1996-07-22</t>
+  </si>
+  <si>
+    <t>9103012207960002</t>
+  </si>
+  <si>
+    <t>EBIYANA SIMALYA</t>
+  </si>
+  <si>
+    <t>ANSRI APRILIA NAAK</t>
+  </si>
+  <si>
+    <t>SENGGI</t>
+  </si>
+  <si>
+    <t>1996-04-09</t>
+  </si>
+  <si>
+    <t>9111034904960003</t>
+  </si>
+  <si>
+    <t>HERLINA MANGUL</t>
+  </si>
+  <si>
+    <t>9962710525</t>
+  </si>
+  <si>
+    <t>9964089386</t>
+  </si>
+  <si>
+    <t>TANI HILAPOK</t>
+  </si>
+  <si>
+    <t>GURISILI</t>
+  </si>
+  <si>
+    <t>1996-11-10</t>
+  </si>
+  <si>
+    <t>9102455011960001</t>
+  </si>
+  <si>
+    <t>KIWOLEKHE KALOLIK</t>
+  </si>
+  <si>
+    <t>3200000</t>
+  </si>
+  <si>
+    <t>9965992545</t>
+  </si>
+  <si>
+    <t>NOVISKA NATALIA SOKOY</t>
+  </si>
+  <si>
+    <t>1989-11-19</t>
+  </si>
+  <si>
+    <t>9171035911890001</t>
+  </si>
+  <si>
+    <t>BATSEBA ANSAKA</t>
+  </si>
+  <si>
+    <t>YAKOMINA YABANSABRA</t>
+  </si>
+  <si>
+    <t>MARIBU</t>
+  </si>
+  <si>
+    <t>1978-08-14</t>
+  </si>
+  <si>
+    <t>9103045408780001</t>
+  </si>
+  <si>
+    <t>YOHANA SATO</t>
+  </si>
+  <si>
+    <t>224250028</t>
+  </si>
+  <si>
+    <t>PAMIN WISABAL</t>
+  </si>
+  <si>
+    <t>TAPLA</t>
+  </si>
+  <si>
+    <t>1991-12-03</t>
+  </si>
+  <si>
+    <t>9103130312910001</t>
+  </si>
+  <si>
+    <t>NERGANG WISABLA</t>
+  </si>
+  <si>
+    <t>EMINA WENDA</t>
+  </si>
+  <si>
+    <t>PIRAMBORT</t>
+  </si>
+  <si>
+    <t>1993-06-17</t>
+  </si>
+  <si>
+    <t>9171024305870004</t>
+  </si>
+  <si>
+    <t>EWELEK TABUNI</t>
+  </si>
+  <si>
+    <t>DISKO WANIMBO</t>
+  </si>
+  <si>
+    <t>PIRIME</t>
+  </si>
+  <si>
+    <t>1994-03-12</t>
+  </si>
+  <si>
+    <t>91030111203930004</t>
+  </si>
+  <si>
+    <t>KEMINA WENDA</t>
+  </si>
+  <si>
+    <t>JIAN CHRISTOPER R. KOSSAY</t>
+  </si>
+  <si>
+    <t>HOM-HOM</t>
+  </si>
+  <si>
+    <t>28-10-2000</t>
+  </si>
+  <si>
+    <t>9102072810000001</t>
+  </si>
+  <si>
+    <t>0009949601</t>
+  </si>
+  <si>
+    <t>HERLINA HUBY</t>
   </si>
 </sst>
 </file>
@@ -4485,7 +5478,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4583,10 +5576,10 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4640,6 +5633,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -4647,9 +5643,297 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="101">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -4667,13 +5951,31 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4707,60 +6009,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4983,37 +6231,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:R57" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:R57" totalsRowShown="0" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98">
   <autoFilter ref="A1:R57" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nama_mahasiswa" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nama_mahasiswa" dataDxfId="97"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NIM"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="prodi (uuid)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tanggal daftar" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tanggal daftar" dataDxfId="96"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="periode"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Jenis_masuk"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jk"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tempat Lahir" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tanggal Lahir" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tempat Lahir" dataDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tanggal Lahir" dataDxfId="94"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Agama"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NIK" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NIK" dataDxfId="93"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="negara"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Kelurahan"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ID_wilayah" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="ibu" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ID_wilayah" dataDxfId="92"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="ibu" dataDxfId="91"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Biaya Masuk"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="nisn" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="id_jalur_daftar" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="nisn" dataDxfId="90"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="id_jalur_daftar" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:R45" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" dataCellStyle="Good">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:R45" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86" dataCellStyle="Good">
   <autoFilter ref="A1:R45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="nama_mahasiswa" dataDxfId="13" dataCellStyle="Good"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="nama_mahasiswa" dataDxfId="85" dataCellStyle="Good"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NIM" dataCellStyle="Good"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="prodi (uuid)" dataCellStyle="Good"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="tanggal daftar" dataCellStyle="Good"/>
@@ -5021,23 +6269,50 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Jenis_masuk" dataCellStyle="Good"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="jk" dataCellStyle="Good"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tempat Lahir" dataCellStyle="Good"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tanggal Lahir" dataDxfId="12" dataCellStyle="Good"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tanggal Lahir" dataDxfId="84" dataCellStyle="Good"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Agama" dataCellStyle="Good"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="NIK" dataDxfId="11" dataCellStyle="Good"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="NIK" dataDxfId="83" dataCellStyle="Good"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="negara" dataCellStyle="Good"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Kelurahan" dataCellStyle="Good"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ID_wilayah" dataCellStyle="Good"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ibu" dataCellStyle="Good"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Biaya Masuk" dataCellStyle="Good"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="nisn" dataDxfId="10" dataCellStyle="Good"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="id_jalur_daftar" dataDxfId="9" dataCellStyle="Good"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="nisn" dataDxfId="82" dataCellStyle="Good"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="id_jalur_daftar" dataDxfId="81" dataCellStyle="Good"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A1:R31" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{73EB32CA-9381-4A1F-9C0C-DF2DF1F8EB8B}" name="Table226" displayName="Table226" ref="A1:R4" totalsRowShown="0" headerRowDxfId="65" dataDxfId="38" headerRowBorderDxfId="63" tableBorderDxfId="64" dataCellStyle="Normal">
+  <autoFilter ref="A1:R4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{29203126-459E-4053-9A46-044850874C34}" name="nama_mahasiswa" dataDxfId="56" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{B257C1C4-A1E6-4535-9098-297E33237679}" name="NIM" dataDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E4065B9D-6245-4157-9489-4A74A58FE3E0}" name="prodi (uuid)" dataDxfId="54" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{1E13E6F3-262D-49F1-854C-1326F5E5B1A9}" name="tanggal daftar" dataDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{E5C9CA75-64FF-4F33-A4C3-53B8E958540D}" name="periode" dataDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{28032E6D-E5F5-4D24-B150-635139BA3B65}" name="Jenis_masuk" dataDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{9958286B-AAFB-4E60-B2A6-88A9F0490EC5}" name="jk" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{EA638D8E-5001-4CCB-AEA5-5A2D22383EFF}" name="Tempat Lahir" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{5C8CBD7F-12AE-42D7-A7C1-67F652949BB3}" name="Tanggal Lahir" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E48DFE70-E4B8-4496-8502-25754939FAD8}" name="Agama" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{7045B5DC-AD7E-488C-833C-C520E3A66AC9}" name="NIK" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{25B09F44-5751-4A5D-801A-4211B1E29C58}" name="negara" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{CB22747D-AAF0-4784-878D-F7829AEF2B7C}" name="Kelurahan" dataDxfId="44" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{B113D915-759C-4E03-B920-BCDE71055114}" name="ID_wilayah" dataDxfId="43" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{9A40A87C-AFF8-4343-96A8-5C18C133057E}" name="ibu" dataDxfId="42" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{67AAAE6B-E4C7-4C3A-B691-17E55E1BA8E3}" name="Biaya Masuk" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{FB455C41-15A3-45A8-A7F4-05EFABAC0C11}" name="nisn" dataDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{F1E7E776-4C94-4345-B47A-17F0D9FA4DCC}" name="id_jalur_daftar" dataDxfId="39" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A1:R31" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" dataCellStyle="Normal">
   <autoFilter ref="A1:R31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="nama_mahasiswa"/>
@@ -5048,23 +6323,50 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Jenis_masuk" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="jk"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Tempat Lahir"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tanggal Lahir" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tanggal Lahir" dataDxfId="77" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Agama"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="NIK" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="NIK" dataDxfId="76" dataCellStyle="Normal"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="negara" dataCellStyle="Normal"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Kelurahan"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="ID_wilayah" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="ID_wilayah" dataDxfId="75" dataCellStyle="Normal"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="ibu"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Biaya Masuk" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="nisn" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Biaya Masuk" dataDxfId="74" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="nisn" dataDxfId="73" dataCellStyle="Normal"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="id_jalur_daftar" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table225" displayName="Table225" ref="A1:R39" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" dataCellStyle="Good">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1C2EB5CC-42B8-48AC-BBE9-4C40B6C8C5BA}" name="Table2247" displayName="Table2247" ref="A1:R4" totalsRowShown="0" headerRowDxfId="62" dataDxfId="19" headerRowBorderDxfId="60" tableBorderDxfId="61" dataCellStyle="Normal">
+  <autoFilter ref="A1:R4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{2C3569A0-DA9F-4786-AB9A-92AAC3E074CD}" name="nama_mahasiswa" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{AC2855FB-6057-4F35-80B8-309356CBFBE2}" name="NIM" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F8C260C5-B089-4C06-9657-A2D7CA4B8B39}" name="prodi (uuid)" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{8456A252-F579-4778-8B17-1C96761BA21C}" name="tanggal daftar" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{661CF36A-310F-48E7-AE2A-22819BD2F13D}" name="periode" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{22C92460-98C0-4FE2-9389-0F6C3C1B2448}" name="Jenis_masuk" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{6F251D3A-1D64-49FB-8895-9FCA972F38E1}" name="jk" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{7826AA44-A900-46BF-B6EC-053A62A6F1CF}" name="Tempat Lahir" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{A5FF8F9E-2A36-4751-9043-A9BB95E954D8}" name="Tanggal Lahir" dataDxfId="29" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{C9D87E04-322B-410C-A2FB-1C10BF170C0F}" name="Agama" dataDxfId="28" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{1AA22815-854F-48E9-9C65-2543A5422014}" name="NIK" dataDxfId="27" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{87CB74A9-11E3-49A1-B46F-6637CE175F0A}" name="negara" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{FB8BBDB0-0E19-4486-940A-A770F2D80BD8}" name="Kelurahan" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{55AD5683-D963-4E93-8E93-0872253711DC}" name="ID_wilayah" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{619F5611-3579-432E-A93F-C0D33E9F167C}" name="ibu" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{0E7C0932-82F9-4D46-8A61-7B9BB00D16D2}" name="Biaya Masuk" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{C3B427EC-846D-4B1C-9EA3-5605459BA209}" name="nisn" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{0AA05AAE-8205-4C6D-B8B9-762B90D1D669}" name="id_jalur_daftar" dataDxfId="20" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table225" displayName="Table225" ref="A1:R39" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" dataCellStyle="Good">
   <autoFilter ref="A1:R39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="nama_mahasiswa" dataCellStyle="Good"/>
@@ -5075,16 +6377,43 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Jenis_masuk" dataCellStyle="Good"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="jk" dataCellStyle="Good"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Tempat Lahir" dataCellStyle="Good"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Tanggal Lahir" dataDxfId="3" dataCellStyle="Good"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Tanggal Lahir" dataDxfId="69" dataCellStyle="Good"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Agama" dataCellStyle="Good"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="NIK" dataDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="NIK" dataDxfId="68" dataCellStyle="Good"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="negara" dataCellStyle="Good"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Kelurahan" dataCellStyle="Good"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="ID_wilayah" dataDxfId="1" dataCellStyle="Good"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="ID_wilayah" dataDxfId="67" dataCellStyle="Good"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="ibu" dataCellStyle="Good"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Biaya Masuk" dataCellStyle="Good"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="nisn" dataDxfId="0" dataCellStyle="Good"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="nisn" dataDxfId="66" dataCellStyle="Good"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="id_jalur_daftar" dataCellStyle="Good"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B0D624C-09AD-496D-A808-6073E472A2CF}" name="Table2258" displayName="Table2258" ref="A1:R5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="0" headerRowBorderDxfId="57" tableBorderDxfId="58" dataCellStyle="Normal">
+  <autoFilter ref="A1:R5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{110BA9AC-8911-4C2D-839C-3CD975CB725A}" name="nama_mahasiswa" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{1B89E2FC-7295-4AEB-9CEB-E3DD3E014C1D}" name="NIM" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{B4F52B67-EFC2-4292-A5B2-79757E2D1CBC}" name="prodi (uuid)" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{1DECCD67-0557-41CB-A804-41451DC4B710}" name="tanggal daftar" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{1808F768-2189-4FD5-9573-7C84B68DBD2B}" name="periode" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{5A13043E-9847-46A3-91DA-71068BEAF936}" name="Jenis_masuk" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{49497FC3-86F5-4A76-A0BE-A22590AE98B4}" name="jk" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{71057E90-6E30-4F12-86D2-80C3C7243C04}" name="Tempat Lahir" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{3DF44935-348F-41DE-83E2-EC315E304476}" name="Tanggal Lahir" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{3C47228E-7D29-48E4-9675-8AC622BD3965}" name="Agama" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{4AF93A4B-A798-43E1-9E9E-70A97044FBF9}" name="NIK" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{8419F97B-C56A-4A61-94B7-78F7D20E4FE3}" name="negara" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{F4AA54EF-9D0A-43AC-BB3B-E0E0B8A4AA64}" name="Kelurahan" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{A9813D7B-B7DC-402A-8DC3-D97D77CAAB04}" name="ID_wilayah" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{9286957F-6F61-426A-B07A-458CA6AA7713}" name="ibu" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{BCA67159-A819-4FAE-A5F4-0E6E29940BE7}" name="Biaya Masuk" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{F5E90ED4-F113-422B-A068-1E963831594A}" name="nisn" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{8D6592FF-78A4-43C9-9B89-60D196125F47}" name="id_jalur_daftar" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5358,8 +6687,8 @@
   </sheetPr>
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8635,8 +9964,8 @@
   </sheetPr>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11191,6 +12520,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B59EA2-23C3-4E7D-B9BD-8376400E1E0F}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B2" s="62">
+        <v>2254211005</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F2" s="62">
+        <v>2</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J2" s="62">
+        <v>2</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P2" s="62">
+        <v>3200000</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3" s="62">
+        <v>2254211043</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F3" s="62">
+        <v>2</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J3" s="62">
+        <v>2</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P3" s="62">
+        <v>3200000</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>1042</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B4" s="62">
+        <v>2254211048</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F4" s="62">
+        <v>2</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J4" s="62">
+        <v>2</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P4" s="62">
+        <v>3200000</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -12993,14 +14589,299 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013080AA-67A1-46EA-8B5B-1C15C1BBC6D5}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B2" s="62">
+        <v>2254250010</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F2" s="62">
+        <v>2</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J2" s="62">
+        <v>2</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R2" s="62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B3" s="62">
+        <v>2254250025</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F3" s="62">
+        <v>2</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J3" s="62">
+        <v>2</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="62">
+        <v>2254250028</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F4" s="62">
+        <v>11</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J4" s="62">
+        <v>2</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>1059</v>
+      </c>
+      <c r="R4" s="62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -15235,4 +17116,332 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA930D4-8A34-4367-BEAF-C59AF2CB0091}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B2" s="62">
+        <v>2254231014</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F2" s="62">
+        <v>2</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J2" s="62">
+        <v>2</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>1064</v>
+      </c>
+      <c r="P2" s="62">
+        <v>3200000</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B3" s="62">
+        <v>2254231015</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F3" s="62">
+        <v>2</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J3" s="62">
+        <v>2</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P3" s="62">
+        <v>3200000</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B4" s="62">
+        <v>2254231042</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F4" s="62">
+        <v>2</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J4" s="62">
+        <v>2</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P4" s="62">
+        <v>3200000</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B5" s="62">
+        <v>2254231045</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="62">
+        <v>20221</v>
+      </c>
+      <c r="F5" s="62">
+        <v>2</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J5" s="62">
+        <v>3</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P5" s="62">
+        <v>3200000</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/mahasiswa.xlsx
+++ b/mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\neo-integrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79D8952-E876-4068-9207-FD964ED110A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733915A6-6C53-485B-9D17-4A53C574E5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="agribisnis" sheetId="1" r:id="rId1"/>
@@ -1963,7 +1963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="1083">
   <si>
     <t>nama_mahasiswa</t>
   </si>
@@ -5142,9 +5142,6 @@
     <t>YOHANA SATO</t>
   </si>
   <si>
-    <t>224250028</t>
-  </si>
-  <si>
     <t>PAMIN WISABAL</t>
   </si>
   <si>
@@ -5184,9 +5181,6 @@
     <t>1994-03-12</t>
   </si>
   <si>
-    <t>91030111203930004</t>
-  </si>
-  <si>
     <t>KEMINA WENDA</t>
   </si>
   <si>
@@ -5196,9 +5190,6 @@
     <t>HOM-HOM</t>
   </si>
   <si>
-    <t>28-10-2000</t>
-  </si>
-  <si>
     <t>9102072810000001</t>
   </si>
   <si>
@@ -5206,6 +5197,21 @@
   </si>
   <si>
     <t>HERLINA HUBY</t>
+  </si>
+  <si>
+    <t>belum nilai konv</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>0224250028</t>
+  </si>
+  <si>
+    <t>9103011203930004</t>
+  </si>
+  <si>
+    <t>2000-10-28</t>
   </si>
 </sst>
 </file>
@@ -5315,7 +5321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -5471,6 +5477,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5619,21 +5634,25 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5643,8 +5662,14 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="104">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5702,61 +5727,73 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5817,103 +5854,13 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -5956,6 +5903,93 @@
           <color rgb="FF000000"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -6231,37 +6265,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:R57" totalsRowShown="0" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:R57" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101">
   <autoFilter ref="A1:R57" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nama_mahasiswa" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nama_mahasiswa" dataDxfId="100"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NIM"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="prodi (uuid)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tanggal daftar" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tanggal daftar" dataDxfId="99"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="periode"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Jenis_masuk"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jk"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tempat Lahir" dataDxfId="95"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tanggal Lahir" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tempat Lahir" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tanggal Lahir" dataDxfId="97"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Agama"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NIK" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NIK" dataDxfId="96"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="negara"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Kelurahan"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ID_wilayah" dataDxfId="92"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="ibu" dataDxfId="91"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ID_wilayah" dataDxfId="95"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="ibu" dataDxfId="94"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Biaya Masuk"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="nisn" dataDxfId="90"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="id_jalur_daftar" dataDxfId="89"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="nisn" dataDxfId="93"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="id_jalur_daftar" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:R45" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86" dataCellStyle="Good">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="A1:R45" totalsRowShown="0" headerRowDxfId="91" headerRowBorderDxfId="90" tableBorderDxfId="89" dataCellStyle="Good">
   <autoFilter ref="A1:R45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="nama_mahasiswa" dataDxfId="85" dataCellStyle="Good"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="nama_mahasiswa" dataDxfId="88" dataCellStyle="Good"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NIM" dataCellStyle="Good"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="prodi (uuid)" dataCellStyle="Good"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="tanggal daftar" dataCellStyle="Good"/>
@@ -6269,50 +6303,51 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Jenis_masuk" dataCellStyle="Good"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="jk" dataCellStyle="Good"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tempat Lahir" dataCellStyle="Good"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tanggal Lahir" dataDxfId="84" dataCellStyle="Good"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tanggal Lahir" dataDxfId="87" dataCellStyle="Good"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Agama" dataCellStyle="Good"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="NIK" dataDxfId="83" dataCellStyle="Good"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="NIK" dataDxfId="86" dataCellStyle="Good"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="negara" dataCellStyle="Good"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Kelurahan" dataCellStyle="Good"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="ID_wilayah" dataCellStyle="Good"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="ibu" dataCellStyle="Good"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Biaya Masuk" dataCellStyle="Good"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="nisn" dataDxfId="82" dataCellStyle="Good"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="id_jalur_daftar" dataDxfId="81" dataCellStyle="Good"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="nisn" dataDxfId="85" dataCellStyle="Good"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="id_jalur_daftar" dataDxfId="84" dataCellStyle="Good"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{73EB32CA-9381-4A1F-9C0C-DF2DF1F8EB8B}" name="Table226" displayName="Table226" ref="A1:R4" totalsRowShown="0" headerRowDxfId="65" dataDxfId="38" headerRowBorderDxfId="63" tableBorderDxfId="64" dataCellStyle="Normal">
-  <autoFilter ref="A1:R4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{29203126-459E-4053-9A46-044850874C34}" name="nama_mahasiswa" dataDxfId="56" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{B257C1C4-A1E6-4535-9098-297E33237679}" name="NIM" dataDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{E4065B9D-6245-4157-9489-4A74A58FE3E0}" name="prodi (uuid)" dataDxfId="54" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{1E13E6F3-262D-49F1-854C-1326F5E5B1A9}" name="tanggal daftar" dataDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{E5C9CA75-64FF-4F33-A4C3-53B8E958540D}" name="periode" dataDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{28032E6D-E5F5-4D24-B150-635139BA3B65}" name="Jenis_masuk" dataDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{9958286B-AAFB-4E60-B2A6-88A9F0490EC5}" name="jk" dataDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{EA638D8E-5001-4CCB-AEA5-5A2D22383EFF}" name="Tempat Lahir" dataDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{5C8CBD7F-12AE-42D7-A7C1-67F652949BB3}" name="Tanggal Lahir" dataDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{E48DFE70-E4B8-4496-8502-25754939FAD8}" name="Agama" dataDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{7045B5DC-AD7E-488C-833C-C520E3A66AC9}" name="NIK" dataDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{25B09F44-5751-4A5D-801A-4211B1E29C58}" name="negara" dataDxfId="45" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{CB22747D-AAF0-4784-878D-F7829AEF2B7C}" name="Kelurahan" dataDxfId="44" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{B113D915-759C-4E03-B920-BCDE71055114}" name="ID_wilayah" dataDxfId="43" dataCellStyle="Normal"/>
-    <tableColumn id="15" xr3:uid="{9A40A87C-AFF8-4343-96A8-5C18C133057E}" name="ibu" dataDxfId="42" dataCellStyle="Normal"/>
-    <tableColumn id="16" xr3:uid="{67AAAE6B-E4C7-4C3A-B691-17E55E1BA8E3}" name="Biaya Masuk" dataDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{FB455C41-15A3-45A8-A7F4-05EFABAC0C11}" name="nisn" dataDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="18" xr3:uid="{F1E7E776-4C94-4345-B47A-17F0D9FA4DCC}" name="id_jalur_daftar" dataDxfId="39" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{73EB32CA-9381-4A1F-9C0C-DF2DF1F8EB8B}" name="Table226" displayName="Table226" ref="A1:S4" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" dataCellStyle="Normal">
+  <autoFilter ref="A1:S4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{29203126-459E-4053-9A46-044850874C34}" name="nama_mahasiswa" dataDxfId="79" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{B257C1C4-A1E6-4535-9098-297E33237679}" name="NIM" dataDxfId="78" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{E4065B9D-6245-4157-9489-4A74A58FE3E0}" name="prodi (uuid)" dataDxfId="77" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{1E13E6F3-262D-49F1-854C-1326F5E5B1A9}" name="tanggal daftar" dataDxfId="76" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{E5C9CA75-64FF-4F33-A4C3-53B8E958540D}" name="periode" dataDxfId="75" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{28032E6D-E5F5-4D24-B150-635139BA3B65}" name="Jenis_masuk" dataDxfId="74" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{9958286B-AAFB-4E60-B2A6-88A9F0490EC5}" name="jk" dataDxfId="73" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{EA638D8E-5001-4CCB-AEA5-5A2D22383EFF}" name="Tempat Lahir" dataDxfId="72" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{5C8CBD7F-12AE-42D7-A7C1-67F652949BB3}" name="Tanggal Lahir" dataDxfId="71" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{E48DFE70-E4B8-4496-8502-25754939FAD8}" name="Agama" dataDxfId="70" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{7045B5DC-AD7E-488C-833C-C520E3A66AC9}" name="NIK" dataDxfId="69" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{25B09F44-5751-4A5D-801A-4211B1E29C58}" name="negara" dataDxfId="68" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{CB22747D-AAF0-4784-878D-F7829AEF2B7C}" name="Kelurahan" dataDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{B113D915-759C-4E03-B920-BCDE71055114}" name="ID_wilayah" dataDxfId="66" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{9A40A87C-AFF8-4343-96A8-5C18C133057E}" name="ibu" dataDxfId="65" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{67AAAE6B-E4C7-4C3A-B691-17E55E1BA8E3}" name="Biaya Masuk" dataDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{FB455C41-15A3-45A8-A7F4-05EFABAC0C11}" name="nisn" dataDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{F1E7E776-4C94-4345-B47A-17F0D9FA4DCC}" name="id_jalur_daftar" dataDxfId="62" dataCellStyle="Normal"/>
+    <tableColumn id="19" xr3:uid="{0FBF6BB4-191E-49B3-9B0F-845C123F7791}" name="Column1" dataDxfId="61" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A1:R31" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table224" displayName="Table224" ref="A1:R31" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" dataCellStyle="Normal">
   <autoFilter ref="A1:R31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="nama_mahasiswa"/>
@@ -6323,15 +6358,15 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Jenis_masuk" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="jk"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Tempat Lahir"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tanggal Lahir" dataDxfId="77" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tanggal Lahir" dataDxfId="57" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Agama"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="NIK" dataDxfId="76" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="NIK" dataDxfId="56" dataCellStyle="Normal"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="negara" dataCellStyle="Normal"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Kelurahan"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="ID_wilayah" dataDxfId="75" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="ID_wilayah" dataDxfId="55" dataCellStyle="Normal"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="ibu"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Biaya Masuk" dataDxfId="74" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="nisn" dataDxfId="73" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Biaya Masuk" dataDxfId="54" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="nisn" dataDxfId="53" dataCellStyle="Normal"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="id_jalur_daftar" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6339,34 +6374,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1C2EB5CC-42B8-48AC-BBE9-4C40B6C8C5BA}" name="Table2247" displayName="Table2247" ref="A1:R4" totalsRowShown="0" headerRowDxfId="62" dataDxfId="19" headerRowBorderDxfId="60" tableBorderDxfId="61" dataCellStyle="Normal">
-  <autoFilter ref="A1:R4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{2C3569A0-DA9F-4786-AB9A-92AAC3E074CD}" name="nama_mahasiswa" dataDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{AC2855FB-6057-4F35-80B8-309356CBFBE2}" name="NIM" dataDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F8C260C5-B089-4C06-9657-A2D7CA4B8B39}" name="prodi (uuid)" dataDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{8456A252-F579-4778-8B17-1C96761BA21C}" name="tanggal daftar" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{661CF36A-310F-48E7-AE2A-22819BD2F13D}" name="periode" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{22C92460-98C0-4FE2-9389-0F6C3C1B2448}" name="Jenis_masuk" dataDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{6F251D3A-1D64-49FB-8895-9FCA972F38E1}" name="jk" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{7826AA44-A900-46BF-B6EC-053A62A6F1CF}" name="Tempat Lahir" dataDxfId="30" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{A5FF8F9E-2A36-4751-9043-A9BB95E954D8}" name="Tanggal Lahir" dataDxfId="29" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{C9D87E04-322B-410C-A2FB-1C10BF170C0F}" name="Agama" dataDxfId="28" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{1AA22815-854F-48E9-9C65-2543A5422014}" name="NIK" dataDxfId="27" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{87CB74A9-11E3-49A1-B46F-6637CE175F0A}" name="negara" dataDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{FB8BBDB0-0E19-4486-940A-A770F2D80BD8}" name="Kelurahan" dataDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{55AD5683-D963-4E93-8E93-0872253711DC}" name="ID_wilayah" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="15" xr3:uid="{619F5611-3579-432E-A93F-C0D33E9F167C}" name="ibu" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="16" xr3:uid="{0E7C0932-82F9-4D46-8A61-7B9BB00D16D2}" name="Biaya Masuk" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{C3B427EC-846D-4B1C-9EA3-5605459BA209}" name="nisn" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="18" xr3:uid="{0AA05AAE-8205-4C6D-B8B9-762B90D1D669}" name="id_jalur_daftar" dataDxfId="20" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1C2EB5CC-42B8-48AC-BBE9-4C40B6C8C5BA}" name="Table2247" displayName="Table2247" ref="A1:S4" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" dataCellStyle="Normal">
+  <autoFilter ref="A1:S4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{2C3569A0-DA9F-4786-AB9A-92AAC3E074CD}" name="nama_mahasiswa" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{AC2855FB-6057-4F35-80B8-309356CBFBE2}" name="NIM" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F8C260C5-B089-4C06-9657-A2D7CA4B8B39}" name="prodi (uuid)" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{8456A252-F579-4778-8B17-1C96761BA21C}" name="tanggal daftar" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{661CF36A-310F-48E7-AE2A-22819BD2F13D}" name="periode" dataDxfId="44" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{22C92460-98C0-4FE2-9389-0F6C3C1B2448}" name="Jenis_masuk" dataDxfId="43" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{6F251D3A-1D64-49FB-8895-9FCA972F38E1}" name="jk" dataDxfId="42" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{7826AA44-A900-46BF-B6EC-053A62A6F1CF}" name="Tempat Lahir" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{A5FF8F9E-2A36-4751-9043-A9BB95E954D8}" name="Tanggal Lahir" dataDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{C9D87E04-322B-410C-A2FB-1C10BF170C0F}" name="Agama" dataDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{1AA22815-854F-48E9-9C65-2543A5422014}" name="NIK" dataDxfId="38" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{87CB74A9-11E3-49A1-B46F-6637CE175F0A}" name="negara" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{FB8BBDB0-0E19-4486-940A-A770F2D80BD8}" name="Kelurahan" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{55AD5683-D963-4E93-8E93-0872253711DC}" name="ID_wilayah" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{619F5611-3579-432E-A93F-C0D33E9F167C}" name="ibu" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{0E7C0932-82F9-4D46-8A61-7B9BB00D16D2}" name="Biaya Masuk" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{C3B427EC-846D-4B1C-9EA3-5605459BA209}" name="nisn" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{0AA05AAE-8205-4C6D-B8B9-762B90D1D669}" name="id_jalur_daftar" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="19" xr3:uid="{D08986E2-4507-4907-A6B9-6F73F6B2AFB5}" name="Column1" dataDxfId="30" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table225" displayName="Table225" ref="A1:R39" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" dataCellStyle="Good">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table225" displayName="Table225" ref="A1:R39" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" dataCellStyle="Good">
   <autoFilter ref="A1:R39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="nama_mahasiswa" dataCellStyle="Good"/>
@@ -6377,15 +6413,15 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Jenis_masuk" dataCellStyle="Good"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="jk" dataCellStyle="Good"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Tempat Lahir" dataCellStyle="Good"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Tanggal Lahir" dataDxfId="69" dataCellStyle="Good"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Tanggal Lahir" dataDxfId="26" dataCellStyle="Good"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Agama" dataCellStyle="Good"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="NIK" dataDxfId="68" dataCellStyle="Good"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="NIK" dataDxfId="25" dataCellStyle="Good"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="negara" dataCellStyle="Good"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Kelurahan" dataCellStyle="Good"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="ID_wilayah" dataDxfId="67" dataCellStyle="Good"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="ID_wilayah" dataDxfId="24" dataCellStyle="Good"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="ibu" dataCellStyle="Good"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Biaya Masuk" dataCellStyle="Good"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="nisn" dataDxfId="66" dataCellStyle="Good"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="nisn" dataDxfId="23" dataCellStyle="Good"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="id_jalur_daftar" dataCellStyle="Good"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6393,27 +6429,28 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B0D624C-09AD-496D-A808-6073E472A2CF}" name="Table2258" displayName="Table2258" ref="A1:R5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="0" headerRowBorderDxfId="57" tableBorderDxfId="58" dataCellStyle="Normal">
-  <autoFilter ref="A1:R5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{110BA9AC-8911-4C2D-839C-3CD975CB725A}" name="nama_mahasiswa" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{1B89E2FC-7295-4AEB-9CEB-E3DD3E014C1D}" name="NIM" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{B4F52B67-EFC2-4292-A5B2-79757E2D1CBC}" name="prodi (uuid)" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{1DECCD67-0557-41CB-A804-41451DC4B710}" name="tanggal daftar" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{1808F768-2189-4FD5-9573-7C84B68DBD2B}" name="periode" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{5A13043E-9847-46A3-91DA-71068BEAF936}" name="Jenis_masuk" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{49497FC3-86F5-4A76-A0BE-A22590AE98B4}" name="jk" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{71057E90-6E30-4F12-86D2-80C3C7243C04}" name="Tempat Lahir" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{3DF44935-348F-41DE-83E2-EC315E304476}" name="Tanggal Lahir" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{3C47228E-7D29-48E4-9675-8AC622BD3965}" name="Agama" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{4AF93A4B-A798-43E1-9E9E-70A97044FBF9}" name="NIK" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{8419F97B-C56A-4A61-94B7-78F7D20E4FE3}" name="negara" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{F4AA54EF-9D0A-43AC-BB3B-E0E0B8A4AA64}" name="Kelurahan" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{A9813D7B-B7DC-402A-8DC3-D97D77CAAB04}" name="ID_wilayah" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="15" xr3:uid="{9286957F-6F61-426A-B07A-458CA6AA7713}" name="ibu" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="16" xr3:uid="{BCA67159-A819-4FAE-A5F4-0E6E29940BE7}" name="Biaya Masuk" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{F5E90ED4-F113-422B-A068-1E963831594A}" name="nisn" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="18" xr3:uid="{8D6592FF-78A4-43C9-9B89-60D196125F47}" name="id_jalur_daftar" dataDxfId="1" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B0D624C-09AD-496D-A808-6073E472A2CF}" name="Table2258" displayName="Table2258" ref="A1:S5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" dataCellStyle="Good">
+  <autoFilter ref="A1:S5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{110BA9AC-8911-4C2D-839C-3CD975CB725A}" name="nama_mahasiswa" dataDxfId="18" dataCellStyle="Good"/>
+    <tableColumn id="2" xr3:uid="{1B89E2FC-7295-4AEB-9CEB-E3DD3E014C1D}" name="NIM" dataDxfId="17" dataCellStyle="Good"/>
+    <tableColumn id="3" xr3:uid="{B4F52B67-EFC2-4292-A5B2-79757E2D1CBC}" name="prodi (uuid)" dataDxfId="16" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{1DECCD67-0557-41CB-A804-41451DC4B710}" name="tanggal daftar" dataDxfId="15" dataCellStyle="Good"/>
+    <tableColumn id="5" xr3:uid="{1808F768-2189-4FD5-9573-7C84B68DBD2B}" name="periode" dataDxfId="14" dataCellStyle="Good"/>
+    <tableColumn id="6" xr3:uid="{5A13043E-9847-46A3-91DA-71068BEAF936}" name="Jenis_masuk" dataDxfId="13" dataCellStyle="Good"/>
+    <tableColumn id="7" xr3:uid="{49497FC3-86F5-4A76-A0BE-A22590AE98B4}" name="jk" dataDxfId="12" dataCellStyle="Good"/>
+    <tableColumn id="8" xr3:uid="{71057E90-6E30-4F12-86D2-80C3C7243C04}" name="Tempat Lahir" dataDxfId="11" dataCellStyle="Good"/>
+    <tableColumn id="9" xr3:uid="{3DF44935-348F-41DE-83E2-EC315E304476}" name="Tanggal Lahir" dataDxfId="10" dataCellStyle="Good"/>
+    <tableColumn id="10" xr3:uid="{3C47228E-7D29-48E4-9675-8AC622BD3965}" name="Agama" dataDxfId="9" dataCellStyle="Good"/>
+    <tableColumn id="11" xr3:uid="{4AF93A4B-A798-43E1-9E9E-70A97044FBF9}" name="NIK" dataDxfId="8" dataCellStyle="Good"/>
+    <tableColumn id="12" xr3:uid="{8419F97B-C56A-4A61-94B7-78F7D20E4FE3}" name="negara" dataDxfId="7" dataCellStyle="Good"/>
+    <tableColumn id="13" xr3:uid="{F4AA54EF-9D0A-43AC-BB3B-E0E0B8A4AA64}" name="Kelurahan" dataDxfId="6" dataCellStyle="Good"/>
+    <tableColumn id="14" xr3:uid="{A9813D7B-B7DC-402A-8DC3-D97D77CAAB04}" name="ID_wilayah" dataDxfId="5" dataCellStyle="Good"/>
+    <tableColumn id="15" xr3:uid="{9286957F-6F61-426A-B07A-458CA6AA7713}" name="ibu" dataDxfId="4" dataCellStyle="Good"/>
+    <tableColumn id="16" xr3:uid="{BCA67159-A819-4FAE-A5F4-0E6E29940BE7}" name="Biaya Masuk" dataDxfId="3" dataCellStyle="Good"/>
+    <tableColumn id="17" xr3:uid="{F5E90ED4-F113-422B-A068-1E963831594A}" name="nisn" dataDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="18" xr3:uid="{8D6592FF-78A4-43C9-9B89-60D196125F47}" name="id_jalur_daftar" dataDxfId="1" dataCellStyle="Good"/>
+    <tableColumn id="19" xr3:uid="{C180576D-6FDE-47E7-BB0D-C28C7274BE69}" name="Column1" dataDxfId="0" dataCellStyle="Good"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12524,10 +12561,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12551,7 +12588,7 @@
     <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -12606,173 +12643,185 @@
       <c r="R1" s="37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="S1" s="60" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>1027</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="58">
         <v>2254211005</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F2" s="62">
+      <c r="D2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F2" s="58">
         <v>2</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="58" t="s">
         <v>1028</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="58">
         <v>2</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="58" t="s">
         <v>1029</v>
       </c>
-      <c r="L2" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="62" t="s">
+      <c r="L2" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="58" t="s">
         <v>1030</v>
       </c>
-      <c r="P2" s="62">
+      <c r="P2" s="58">
         <v>3200000</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="58" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="S2" s="59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
         <v>1031</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="58">
         <v>2254211043</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F3" s="62">
+      <c r="D3" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F3" s="58">
         <v>2</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="58" t="s">
         <v>1032</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="58" t="s">
         <v>1033</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="58">
         <v>2</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="58" t="s">
         <v>1034</v>
       </c>
-      <c r="L3" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="58" t="s">
         <v>1035</v>
       </c>
-      <c r="P3" s="62">
+      <c r="P3" s="58">
         <v>3200000</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="58" t="s">
         <v>1042</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="58" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="S3" s="59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
         <v>1036</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="58">
         <v>2254211048</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F4" s="62">
+      <c r="D4" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F4" s="58">
         <v>2</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="58" t="s">
         <v>1037</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="58" t="s">
         <v>1038</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="58">
         <v>2</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="58" t="s">
         <v>1039</v>
       </c>
-      <c r="L4" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="58" t="s">
         <v>1040</v>
       </c>
-      <c r="P4" s="62">
+      <c r="P4" s="58">
         <v>3200000</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="58" t="s">
         <v>1041</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="58" t="s">
         <v>38</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12793,8 +12842,8 @@
   </sheetPr>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13587,7 +13636,7 @@
       <c r="N14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="60" t="s">
+      <c r="O14" s="56" t="s">
         <v>459</v>
       </c>
       <c r="P14" s="51">
@@ -14497,58 +14546,58 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="38" t="s">
         <v>786</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="38">
         <v>2254250037</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D31" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="56">
-        <v>20221</v>
-      </c>
-      <c r="F31" s="56">
+      <c r="D31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="27">
+        <v>20221</v>
+      </c>
+      <c r="F31" s="27">
         <v>1</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="H31" s="38" t="s">
         <v>789</v>
       </c>
-      <c r="I31" s="58" t="s">
+      <c r="I31" s="28" t="s">
         <v>793</v>
       </c>
-      <c r="J31" s="59">
+      <c r="J31" s="39">
         <v>2</v>
       </c>
-      <c r="K31" s="58" t="s">
+      <c r="K31" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="L31" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="57" t="s">
+      <c r="L31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="N31" s="58" t="s">
+      <c r="N31" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="57" t="s">
+      <c r="O31" s="38" t="s">
         <v>802</v>
       </c>
-      <c r="P31" s="56">
+      <c r="P31" s="27">
         <v>2425000</v>
       </c>
-      <c r="Q31" s="58" t="s">
+      <c r="Q31" s="28" t="s">
         <v>804</v>
       </c>
-      <c r="R31" s="56" t="s">
+      <c r="R31" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14594,10 +14643,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14621,7 +14670,7 @@
     <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -14676,191 +14725,203 @@
       <c r="R1" s="37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="S1" s="61" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>1043</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="58">
         <v>2254250010</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F2" s="62">
+      <c r="D2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F2" s="58">
         <v>2</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="58" t="s">
         <v>1044</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="58" t="s">
         <v>1045</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="58">
         <v>2</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="58" t="s">
         <v>1046</v>
       </c>
-      <c r="L2" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="62" t="s">
+      <c r="L2" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="58" t="s">
         <v>1047</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="58" t="s">
         <v>1048</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="58" t="s">
         <v>1049</v>
       </c>
-      <c r="R2" s="62">
+      <c r="R2" s="58">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="S2" s="59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
         <v>1050</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="58">
         <v>2254250025</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F3" s="62">
+      <c r="D3" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F3" s="58">
         <v>2</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="58" t="s">
         <v>1051</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="58">
         <v>2</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="58" t="s">
         <v>1052</v>
       </c>
-      <c r="L3" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="58" t="s">
         <v>1053</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="58" t="s">
         <v>1048</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="R3" s="62">
+      <c r="R3" s="58">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="S3" s="59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
         <v>1054</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="58">
         <v>2254250028</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F4" s="62">
+      <c r="D4" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F4" s="58">
         <v>11</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="58" t="s">
         <v>1055</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="58" t="s">
         <v>1056</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="58">
         <v>2</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="58" t="s">
         <v>1057</v>
       </c>
-      <c r="L4" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="58" t="s">
         <v>1058</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="58" t="s">
         <v>1048</v>
       </c>
       <c r="Q4" s="62" t="s">
-        <v>1059</v>
-      </c>
-      <c r="R4" s="62">
+        <v>1080</v>
+      </c>
+      <c r="R4" s="58">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D10"/>
     </row>
     <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14966,7 +15027,7 @@
       <c r="A2" s="38" t="s">
         <v>806</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="57">
         <v>2254231001</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -15022,7 +15083,7 @@
       <c r="A3" s="38" t="s">
         <v>807</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="57">
         <v>2254231002</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -15078,7 +15139,7 @@
       <c r="A4" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="57">
         <v>2254231003</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -15134,7 +15195,7 @@
       <c r="A5" s="38" t="s">
         <v>809</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="57">
         <v>2254231004</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -15190,7 +15251,7 @@
       <c r="A6" s="38" t="s">
         <v>810</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="57">
         <v>2254231005</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -15246,7 +15307,7 @@
       <c r="A7" s="38" t="s">
         <v>811</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="57">
         <v>2254231006</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -15302,7 +15363,7 @@
       <c r="A8" s="38" t="s">
         <v>812</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="57">
         <v>2254231007</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -15358,7 +15419,7 @@
       <c r="A9" s="38" t="s">
         <v>813</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="57">
         <v>2254231008</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -15414,7 +15475,7 @@
       <c r="A10" s="38" t="s">
         <v>814</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="57">
         <v>2254231009</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -15470,7 +15531,7 @@
       <c r="A11" s="38" t="s">
         <v>815</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="57">
         <v>2254231010</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -15526,7 +15587,7 @@
       <c r="A12" s="38" t="s">
         <v>816</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="57">
         <v>2254231011</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -15582,7 +15643,7 @@
       <c r="A13" s="38" t="s">
         <v>817</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="57">
         <v>2254231012</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -15638,7 +15699,7 @@
       <c r="A14" s="38" t="s">
         <v>818</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="57">
         <v>2254231013</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -15694,7 +15755,7 @@
       <c r="A15" s="38" t="s">
         <v>819</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="57">
         <v>2254231017</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -15750,7 +15811,7 @@
       <c r="A16" s="38" t="s">
         <v>820</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="57">
         <v>2254231018</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -15806,7 +15867,7 @@
       <c r="A17" s="38" t="s">
         <v>821</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="57">
         <v>2254231019</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -15862,7 +15923,7 @@
       <c r="A18" s="38" t="s">
         <v>822</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="57">
         <v>2254231020</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -15918,7 +15979,7 @@
       <c r="A19" s="38" t="s">
         <v>823</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="57">
         <v>2254231021</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -15974,7 +16035,7 @@
       <c r="A20" s="38" t="s">
         <v>824</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="57">
         <v>2254231022</v>
       </c>
       <c r="C20" s="27" t="s">
@@ -16030,7 +16091,7 @@
       <c r="A21" s="38" t="s">
         <v>825</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="57">
         <v>2254231023</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -16086,7 +16147,7 @@
       <c r="A22" s="38" t="s">
         <v>826</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="57">
         <v>2254231024</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -16142,7 +16203,7 @@
       <c r="A23" s="38" t="s">
         <v>827</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="57">
         <v>2254231025</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -16198,7 +16259,7 @@
       <c r="A24" s="38" t="s">
         <v>828</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="57">
         <v>2254231026</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -16254,7 +16315,7 @@
       <c r="A25" s="38" t="s">
         <v>829</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="57">
         <v>2254231027</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -16310,7 +16371,7 @@
       <c r="A26" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="57">
         <v>2254231028</v>
       </c>
       <c r="C26" s="27" t="s">
@@ -16366,7 +16427,7 @@
       <c r="A27" s="38" t="s">
         <v>831</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="57">
         <v>2254231029</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -16422,7 +16483,7 @@
       <c r="A28" s="38" t="s">
         <v>832</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="57">
         <v>2254231030</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -16478,7 +16539,7 @@
       <c r="A29" s="38" t="s">
         <v>833</v>
       </c>
-      <c r="B29" s="61">
+      <c r="B29" s="57">
         <v>2254231031</v>
       </c>
       <c r="C29" s="27" t="s">
@@ -16534,7 +16595,7 @@
       <c r="A30" s="38" t="s">
         <v>834</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B30" s="57">
         <v>2254231032</v>
       </c>
       <c r="C30" s="27" t="s">
@@ -16590,7 +16651,7 @@
       <c r="A31" s="38" t="s">
         <v>835</v>
       </c>
-      <c r="B31" s="61">
+      <c r="B31" s="57">
         <v>2254231033</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -16646,7 +16707,7 @@
       <c r="A32" s="38" t="s">
         <v>836</v>
       </c>
-      <c r="B32" s="61">
+      <c r="B32" s="57">
         <v>2254231034</v>
       </c>
       <c r="C32" s="27" t="s">
@@ -16702,7 +16763,7 @@
       <c r="A33" s="38" t="s">
         <v>837</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="57">
         <v>2254231035</v>
       </c>
       <c r="C33" s="27" t="s">
@@ -16758,7 +16819,7 @@
       <c r="A34" s="38" t="s">
         <v>838</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="57">
         <v>2254231036</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -16814,7 +16875,7 @@
       <c r="A35" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="B35" s="61">
+      <c r="B35" s="57">
         <v>2254231037</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -16870,7 +16931,7 @@
       <c r="A36" s="38" t="s">
         <v>840</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="57">
         <v>2254231038</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -16926,7 +16987,7 @@
       <c r="A37" s="38" t="s">
         <v>841</v>
       </c>
-      <c r="B37" s="61">
+      <c r="B37" s="57">
         <v>2254231039</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -16982,7 +17043,7 @@
       <c r="A38" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="B38" s="61">
+      <c r="B38" s="57">
         <v>2254231046</v>
       </c>
       <c r="C38" s="27" t="s">
@@ -17038,7 +17099,7 @@
       <c r="A39" s="38" t="s">
         <v>843</v>
       </c>
-      <c r="B39" s="61">
+      <c r="B39" s="57">
         <v>2254231047</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -17123,10 +17184,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17150,7 +17211,7 @@
     <col min="17" max="17" width="16.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -17205,235 +17266,250 @@
       <c r="R1" s="37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="S1" s="61" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B2" s="58">
+        <v>2254231014</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F2" s="58">
+        <v>2</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>1060</v>
       </c>
-      <c r="B2" s="62">
-        <v>2254231014</v>
-      </c>
-      <c r="C2" s="62" t="s">
+      <c r="I2" s="58" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J2" s="58">
+        <v>2</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>1063</v>
+      </c>
+      <c r="P2" s="58">
+        <v>3200000</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B3" s="58">
+        <v>2254231015</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F2" s="62">
+      <c r="D3" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F3" s="58">
         <v>2</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G3" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J3" s="58">
+        <v>2</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>1068</v>
+      </c>
+      <c r="P3" s="58">
+        <v>3200000</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B4" s="58">
+        <v>2254231042</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F4" s="58">
+        <v>2</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="62" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J2" s="62">
+      <c r="H4" s="58" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J4" s="58">
         <v>2</v>
       </c>
-      <c r="K2" s="62" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="62" t="s">
+      <c r="K4" s="62" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N4" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="62" t="s">
-        <v>1064</v>
-      </c>
-      <c r="P2" s="62">
+      <c r="O4" s="58" t="s">
+        <v>1072</v>
+      </c>
+      <c r="P4" s="58">
         <v>3200000</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q4" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R4" s="58" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B3" s="62">
-        <v>2254231015</v>
-      </c>
-      <c r="C3" s="62" t="s">
+      <c r="S4" s="59" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B5" s="58">
+        <v>2254231045</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F3" s="62">
+      <c r="D5" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="58">
+        <v>20221</v>
+      </c>
+      <c r="F5" s="58">
         <v>2</v>
       </c>
-      <c r="G3" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J3" s="62">
-        <v>2</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>1068</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="62" t="s">
+      <c r="G5" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J5" s="58">
+        <v>3</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N5" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="62" t="s">
-        <v>1069</v>
-      </c>
-      <c r="P3" s="62">
+      <c r="O5" s="58" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P5" s="58">
         <v>3200000</v>
       </c>
-      <c r="Q3" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="R3" s="62" t="s">
+      <c r="Q5" s="58" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R5" s="58" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B4" s="62">
-        <v>2254231042</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>499</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F4" s="62">
-        <v>2</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J4" s="62">
-        <v>2</v>
-      </c>
-      <c r="K4" s="62" t="s">
-        <v>1073</v>
-      </c>
-      <c r="L4" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="62" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P4" s="62">
-        <v>3200000</v>
-      </c>
-      <c r="Q4" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="R4" s="62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B5" s="62">
-        <v>2254231045</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="62">
-        <v>20221</v>
-      </c>
-      <c r="F5" s="62">
-        <v>2</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J5" s="62">
-        <v>3</v>
-      </c>
-      <c r="K5" s="62" t="s">
+      <c r="S5" s="59" t="s">
         <v>1078</v>
       </c>
-      <c r="L5" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P5" s="62">
-        <v>3200000</v>
-      </c>
-      <c r="Q5" s="62" t="s">
-        <v>1079</v>
-      </c>
-      <c r="R5" s="62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D7"/>
     </row>
   </sheetData>
